--- a/Data/New/Data and Sources.xlsx
+++ b/Data/New/Data and Sources.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7116F5E-4C51-AA48-BD42-DF5AC7EF9224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289AA5F-A0FD-A443-A93C-550CE1853084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="520" windowWidth="32000" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="1" r:id="rId1"/>
-    <sheet name="Cattle totals" sheetId="9" r:id="rId2"/>
-    <sheet name="Slaughter Avg dressed weights" sheetId="3" r:id="rId3"/>
-    <sheet name="Prices received" sheetId="4" r:id="rId4"/>
-    <sheet name="Inventory" sheetId="7" r:id="rId5"/>
+    <sheet name="Slaughter Avg dressed weights" sheetId="3" r:id="rId2"/>
+    <sheet name="Prices received" sheetId="4" r:id="rId3"/>
+    <sheet name="Inventory" sheetId="7" r:id="rId4"/>
+    <sheet name="Cattle totals" sheetId="9" r:id="rId5"/>
     <sheet name="U.S. Beef Supply and Use" sheetId="2" r:id="rId6"/>
-    <sheet name="Cows and Heifers slaughtered" sheetId="8" r:id="rId7"/>
-    <sheet name="Steers slaughtered" sheetId="10" r:id="rId8"/>
+    <sheet name="CowsHeifersSteers slaughtered" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="501">
   <si>
     <t>Data Set</t>
   </si>
@@ -1524,6 +1523,12 @@
   </si>
   <si>
     <t>CATTLE, STEERS, SLAUGHTER, COMMERCIAL, FI - SLAUGHTERED, MEASURED IN HEAD</t>
+  </si>
+  <si>
+    <t>This monthly full-text file contains the number of head, live weight, dressed weight of cattle, calves, sheep, lambs, hogs and pigs slaughtered in commerical plants and number by class in federally inspected plants by regions as well as red meat production by species by states and U.S.. Data for this publication comes from reports completed by the Food Safety and Inspection Service (FSIS), and USDA, combined with data from State-administered Non-Federally Inspected (NFI) slaughter plants.</t>
+  </si>
+  <si>
+    <t>For our analysis we use the cows, heifers and steers numbers measured in head</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,###.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,13 +1611,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1650,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1692,7 +1690,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1976,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2054,2764 +2051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A1FC0-679C-AE41-AB79-1BD86DCF5A1D}">
-  <dimension ref="A6:BM19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1960</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1961</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1962</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1963</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1964</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1965</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1966</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1967</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1968</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1969</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1970</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1971</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1972</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>1973</v>
-      </c>
-      <c r="R6" s="8">
-        <v>1974</v>
-      </c>
-      <c r="S6" s="8">
-        <v>1975</v>
-      </c>
-      <c r="T6" s="8">
-        <v>1976</v>
-      </c>
-      <c r="U6" s="8">
-        <v>1977</v>
-      </c>
-      <c r="V6" s="8">
-        <v>1978</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1979</v>
-      </c>
-      <c r="X6" s="8">
-        <v>1980</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>1981</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>1982</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>1983</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1984</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>1985</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>1986</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>1987</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>1988</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>1989</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>1990</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>1991</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>1992</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>1993</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>1994</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>1995</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>1996</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>1997</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>1998</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>1999</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>2000</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>2001</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>2002</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>2003</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>2004</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>2005</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>2006</v>
-      </c>
-      <c r="AY6" s="8">
-        <v>2007</v>
-      </c>
-      <c r="AZ6" s="8">
-        <v>2008</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>2009</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>2010</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="BD6" s="8">
-        <v>2012</v>
-      </c>
-      <c r="BE6" s="8">
-        <v>2013</v>
-      </c>
-      <c r="BF6" s="8">
-        <v>2014</v>
-      </c>
-      <c r="BG6" s="8">
-        <v>2015</v>
-      </c>
-      <c r="BH6" s="8">
-        <v>2016</v>
-      </c>
-      <c r="BI6" s="8">
-        <v>2017</v>
-      </c>
-      <c r="BJ6" s="8">
-        <v>2018</v>
-      </c>
-      <c r="BK6" s="8">
-        <v>2019</v>
-      </c>
-      <c r="BL6" s="8">
-        <v>2020</v>
-      </c>
-      <c r="BM6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10">
-        <v>96236</v>
-      </c>
-      <c r="E7" s="10">
-        <v>97700</v>
-      </c>
-      <c r="F7" s="10">
-        <v>100369</v>
-      </c>
-      <c r="G7" s="10">
-        <v>104488</v>
-      </c>
-      <c r="H7" s="10">
-        <v>107903</v>
-      </c>
-      <c r="I7" s="10">
-        <v>109000</v>
-      </c>
-      <c r="J7" s="10">
-        <v>108862</v>
-      </c>
-      <c r="K7" s="10">
-        <v>108783</v>
-      </c>
-      <c r="L7" s="10">
-        <v>109371</v>
-      </c>
-      <c r="M7" s="10">
-        <v>110015</v>
-      </c>
-      <c r="N7" s="10">
-        <v>112369</v>
-      </c>
-      <c r="O7" s="10">
-        <v>114578</v>
-      </c>
-      <c r="P7" s="10">
-        <v>117862</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>121539</v>
-      </c>
-      <c r="R7" s="10">
-        <v>127788</v>
-      </c>
-      <c r="S7" s="10">
-        <v>132028</v>
-      </c>
-      <c r="T7" s="10">
-        <v>127980</v>
-      </c>
-      <c r="U7" s="10">
-        <v>122810</v>
-      </c>
-      <c r="V7" s="10">
-        <v>116375</v>
-      </c>
-      <c r="W7" s="10">
-        <v>110864</v>
-      </c>
-      <c r="X7" s="10">
-        <v>111242</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>114351</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>115444</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>115001</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>113360</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>109582</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>105378</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>102118</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>99622</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>96740</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>95816</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>96393</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>97556</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>99176</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>100974</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>102785</v>
-      </c>
-      <c r="AN7" s="10">
-        <v>103548</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>101656</v>
-      </c>
-      <c r="AP7" s="10">
-        <v>99744</v>
-      </c>
-      <c r="AQ7" s="10">
-        <v>99115</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>98199</v>
-      </c>
-      <c r="AS7" s="10">
-        <v>97298</v>
-      </c>
-      <c r="AT7" s="10">
-        <v>96723</v>
-      </c>
-      <c r="AU7" s="10">
-        <v>96100</v>
-      </c>
-      <c r="AV7" s="10">
-        <v>94403</v>
-      </c>
-      <c r="AW7" s="10">
-        <v>95018</v>
-      </c>
-      <c r="AX7" s="10">
-        <v>96342</v>
-      </c>
-      <c r="AY7" s="10">
-        <v>96573</v>
-      </c>
-      <c r="AZ7" s="10">
-        <v>96035</v>
-      </c>
-      <c r="BA7" s="10">
-        <v>94721</v>
-      </c>
-      <c r="BB7" s="10">
-        <v>94081</v>
-      </c>
-      <c r="BC7" s="10">
-        <v>92887</v>
-      </c>
-      <c r="BD7" s="10">
-        <v>91160</v>
-      </c>
-      <c r="BE7" s="10">
-        <v>90095</v>
-      </c>
-      <c r="BF7" s="10">
-        <v>88243</v>
-      </c>
-      <c r="BG7" s="10">
-        <v>89173</v>
-      </c>
-      <c r="BH7" s="10">
-        <v>91888</v>
-      </c>
-      <c r="BI7" s="10">
-        <v>93625</v>
-      </c>
-      <c r="BJ7" s="10">
-        <v>94298</v>
-      </c>
-      <c r="BK7" s="10">
-        <v>94805</v>
-      </c>
-      <c r="BL7" s="10">
-        <v>94413</v>
-      </c>
-      <c r="BM7" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10">
-        <v>17650</v>
-      </c>
-      <c r="E8" s="10">
-        <v>17390</v>
-      </c>
-      <c r="F8" s="10">
-        <v>17090</v>
-      </c>
-      <c r="G8" s="10">
-        <v>16570</v>
-      </c>
-      <c r="H8" s="10">
-        <v>15960</v>
-      </c>
-      <c r="I8" s="10">
-        <v>15380</v>
-      </c>
-      <c r="J8" s="10">
-        <v>14490</v>
-      </c>
-      <c r="K8" s="10">
-        <v>13725</v>
-      </c>
-      <c r="L8" s="10">
-        <v>13115</v>
-      </c>
-      <c r="M8" s="10">
-        <v>12550</v>
-      </c>
-      <c r="N8" s="10">
-        <v>12091</v>
-      </c>
-      <c r="O8" s="10">
-        <v>11909</v>
-      </c>
-      <c r="P8" s="10">
-        <v>11776</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>11622</v>
-      </c>
-      <c r="R8" s="10">
-        <v>11297</v>
-      </c>
-      <c r="S8" s="10">
-        <v>11220</v>
-      </c>
-      <c r="T8" s="10">
-        <v>11071</v>
-      </c>
-      <c r="U8" s="10">
-        <v>10998</v>
-      </c>
-      <c r="V8" s="10">
-        <v>10896</v>
-      </c>
-      <c r="W8" s="10">
-        <v>10790</v>
-      </c>
-      <c r="X8" s="10">
-        <v>10758</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>10849</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>10986</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>11047</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>11059</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>10777</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>11116</v>
-      </c>
-      <c r="AE8" s="10">
-        <v>10466</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>10311</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>10137</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>10015</v>
-      </c>
-      <c r="AI8" s="10">
-        <v>9965</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>9728</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>9658</v>
-      </c>
-      <c r="AL8" s="10">
-        <v>9507</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>9482</v>
-      </c>
-      <c r="AN8" s="10">
-        <v>9420</v>
-      </c>
-      <c r="AO8" s="10">
-        <v>9318</v>
-      </c>
-      <c r="AP8" s="10">
-        <v>9199</v>
-      </c>
-      <c r="AQ8" s="10">
-        <v>9128</v>
-      </c>
-      <c r="AR8" s="10">
-        <v>9183</v>
-      </c>
-      <c r="AS8" s="10">
-        <v>9172</v>
-      </c>
-      <c r="AT8" s="10">
-        <v>9106</v>
-      </c>
-      <c r="AU8" s="10">
-        <v>9142</v>
-      </c>
-      <c r="AV8" s="10">
-        <v>8988</v>
-      </c>
-      <c r="AW8" s="10">
-        <v>9004</v>
-      </c>
-      <c r="AX8" s="10">
-        <v>9104</v>
-      </c>
-      <c r="AY8" s="10">
-        <v>9145</v>
-      </c>
-      <c r="AZ8" s="10">
-        <v>9257</v>
-      </c>
-      <c r="BA8" s="10">
-        <v>9333</v>
-      </c>
-      <c r="BB8" s="10">
-        <v>9087</v>
-      </c>
-      <c r="BC8" s="10">
-        <v>9156</v>
-      </c>
-      <c r="BD8" s="10">
-        <v>9236</v>
-      </c>
-      <c r="BE8" s="10">
-        <v>9221</v>
-      </c>
-      <c r="BF8" s="10">
-        <v>9208</v>
-      </c>
-      <c r="BG8" s="10">
-        <v>9307</v>
-      </c>
-      <c r="BH8" s="10">
-        <v>9310</v>
-      </c>
-      <c r="BI8" s="10">
-        <v>9346</v>
-      </c>
-      <c r="BJ8" s="10">
-        <v>9432</v>
-      </c>
-      <c r="BK8" s="10">
-        <v>9353</v>
-      </c>
-      <c r="BL8" s="10">
-        <v>9335</v>
-      </c>
-      <c r="BM8" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10">
-        <v>25675</v>
-      </c>
-      <c r="E9" s="10">
-        <v>26655</v>
-      </c>
-      <c r="F9" s="10">
-        <v>27996</v>
-      </c>
-      <c r="G9" s="10">
-        <v>29829</v>
-      </c>
-      <c r="H9" s="10">
-        <v>31908</v>
-      </c>
-      <c r="I9" s="10">
-        <v>33400</v>
-      </c>
-      <c r="J9" s="10">
-        <v>33500</v>
-      </c>
-      <c r="K9" s="10">
-        <v>33770</v>
-      </c>
-      <c r="L9" s="10">
-        <v>34570</v>
-      </c>
-      <c r="M9" s="10">
-        <v>35490</v>
-      </c>
-      <c r="N9" s="10">
-        <v>36689</v>
-      </c>
-      <c r="O9" s="10">
-        <v>37878</v>
-      </c>
-      <c r="P9" s="10">
-        <v>38810</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>40932</v>
-      </c>
-      <c r="R9" s="10">
-        <v>43182</v>
-      </c>
-      <c r="S9" s="10">
-        <v>45712</v>
-      </c>
-      <c r="T9" s="10">
-        <v>43901</v>
-      </c>
-      <c r="U9" s="10">
-        <v>41443</v>
-      </c>
-      <c r="V9" s="10">
-        <v>38738</v>
-      </c>
-      <c r="W9" s="10">
-        <v>37062</v>
-      </c>
-      <c r="X9" s="10">
-        <v>37107</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>38773</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>39230</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>37940</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>37484</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>35406</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>33753</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>33945</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>33183</v>
-      </c>
-      <c r="AG9" s="10">
-        <v>32488</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>32454</v>
-      </c>
-      <c r="AI9" s="10">
-        <v>32520</v>
-      </c>
-      <c r="AJ9" s="10">
-        <v>33007</v>
-      </c>
-      <c r="AK9" s="10">
-        <v>33365</v>
-      </c>
-      <c r="AL9" s="10">
-        <v>34603</v>
-      </c>
-      <c r="AM9" s="10">
-        <v>35190</v>
-      </c>
-      <c r="AN9" s="10">
-        <v>35319</v>
-      </c>
-      <c r="AO9" s="10">
-        <v>34458</v>
-      </c>
-      <c r="AP9" s="10">
-        <v>33885</v>
-      </c>
-      <c r="AQ9" s="10">
-        <v>33750</v>
-      </c>
-      <c r="AR9" s="10">
-        <v>33575</v>
-      </c>
-      <c r="AS9" s="10">
-        <v>33398</v>
-      </c>
-      <c r="AT9" s="10">
-        <v>33134</v>
-      </c>
-      <c r="AU9" s="10">
-        <v>32983</v>
-      </c>
-      <c r="AV9" s="10">
-        <v>32531</v>
-      </c>
-      <c r="AW9" s="10">
-        <v>32674</v>
-      </c>
-      <c r="AX9" s="10">
-        <v>32702</v>
-      </c>
-      <c r="AY9" s="10">
-        <v>32644</v>
-      </c>
-      <c r="AZ9" s="10">
-        <v>32435</v>
-      </c>
-      <c r="BA9" s="10">
-        <v>31794</v>
-      </c>
-      <c r="BB9" s="10">
-        <v>31440</v>
-      </c>
-      <c r="BC9" s="10">
-        <v>30913</v>
-      </c>
-      <c r="BD9" s="10">
-        <v>30282</v>
-      </c>
-      <c r="BE9" s="10">
-        <v>29631</v>
-      </c>
-      <c r="BF9" s="10">
-        <v>28957</v>
-      </c>
-      <c r="BG9" s="10">
-        <v>29337</v>
-      </c>
-      <c r="BH9" s="10">
-        <v>30166</v>
-      </c>
-      <c r="BI9" s="10">
-        <v>31193</v>
-      </c>
-      <c r="BJ9" s="10">
-        <v>31466</v>
-      </c>
-      <c r="BK9" s="10">
-        <v>31691</v>
-      </c>
-      <c r="BL9" s="10">
-        <v>31710</v>
-      </c>
-      <c r="BM9" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="10">
-        <v>39416</v>
-      </c>
-      <c r="E10" s="10">
-        <v>40180</v>
-      </c>
-      <c r="F10" s="10">
-        <v>41441</v>
-      </c>
-      <c r="G10" s="10">
-        <v>42268</v>
-      </c>
-      <c r="H10" s="10">
-        <v>43809</v>
-      </c>
-      <c r="I10" s="10">
-        <v>43922</v>
-      </c>
-      <c r="J10" s="10">
-        <v>43537</v>
-      </c>
-      <c r="K10" s="10">
-        <v>43803</v>
-      </c>
-      <c r="L10" s="10">
-        <v>44315</v>
-      </c>
-      <c r="M10" s="10">
-        <v>45177</v>
-      </c>
-      <c r="N10" s="10">
-        <v>45871</v>
-      </c>
-      <c r="O10" s="10">
-        <v>46738</v>
-      </c>
-      <c r="P10" s="10">
-        <v>47682</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>49194</v>
-      </c>
-      <c r="R10" s="10">
-        <v>50873</v>
-      </c>
-      <c r="S10" s="10">
-        <v>50183</v>
-      </c>
-      <c r="T10" s="10">
-        <v>47384</v>
-      </c>
-      <c r="U10" s="10">
-        <v>45931</v>
-      </c>
-      <c r="V10" s="10">
-        <v>43818</v>
-      </c>
-      <c r="W10" s="10">
-        <v>42596</v>
-      </c>
-      <c r="X10" s="10">
-        <v>44938</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>44666</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>44200</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>43885</v>
-      </c>
-      <c r="AB10" s="10">
-        <v>42470</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>41050</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>41182</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>40152</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>39318</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>38817</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>38613</v>
-      </c>
-      <c r="AI10" s="10">
-        <v>38583</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>38933</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>39369</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>40105</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>40264</v>
-      </c>
-      <c r="AN10" s="10">
-        <v>39823</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>38961</v>
-      </c>
-      <c r="AP10" s="10">
-        <v>38812</v>
-      </c>
-      <c r="AQ10" s="10">
-        <v>38796</v>
-      </c>
-      <c r="AR10" s="10">
-        <v>38631</v>
-      </c>
-      <c r="AS10" s="10">
-        <v>38300</v>
-      </c>
-      <c r="AT10" s="10">
-        <v>38224</v>
-      </c>
-      <c r="AU10" s="10">
-        <v>37593</v>
-      </c>
-      <c r="AV10" s="10">
-        <v>37260</v>
-      </c>
-      <c r="AW10" s="10">
-        <v>37106</v>
-      </c>
-      <c r="AX10" s="10">
-        <v>37016</v>
-      </c>
-      <c r="AY10" s="10">
-        <v>36759</v>
-      </c>
-      <c r="AZ10" s="10">
-        <v>36158</v>
-      </c>
-      <c r="BA10" s="10">
-        <v>35939</v>
-      </c>
-      <c r="BB10" s="10">
-        <v>35740</v>
-      </c>
-      <c r="BC10" s="10">
-        <v>35357</v>
-      </c>
-      <c r="BD10" s="10">
-        <v>34469</v>
-      </c>
-      <c r="BE10" s="10">
-        <v>33630</v>
-      </c>
-      <c r="BF10" s="10">
-        <v>33522</v>
-      </c>
-      <c r="BG10" s="10">
-        <v>34087</v>
-      </c>
-      <c r="BH10" s="10">
-        <v>35063</v>
-      </c>
-      <c r="BI10" s="10">
-        <v>35758</v>
-      </c>
-      <c r="BJ10" s="10">
-        <v>36313</v>
-      </c>
-      <c r="BK10" s="10">
-        <v>36060</v>
-      </c>
-      <c r="BL10" s="10">
-        <v>35800</v>
-      </c>
-      <c r="BM10" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="9">
-        <v>663</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1043</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1250</v>
-      </c>
-      <c r="G11" s="9">
-        <v>852</v>
-      </c>
-      <c r="H11" s="9">
-        <v>547</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1128</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1100</v>
-      </c>
-      <c r="K11" s="9">
-        <v>752</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1039</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1042</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1168</v>
-      </c>
-      <c r="O11" s="9">
-        <v>991</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1186</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>1039</v>
-      </c>
-      <c r="R11" s="9">
-        <v>568</v>
-      </c>
-      <c r="S11" s="9">
-        <v>389</v>
-      </c>
-      <c r="T11" s="9">
-        <v>984</v>
-      </c>
-      <c r="U11" s="10">
-        <v>1133</v>
-      </c>
-      <c r="V11" s="10">
-        <v>1253</v>
-      </c>
-      <c r="W11" s="9">
-        <v>732</v>
-      </c>
-      <c r="X11" s="9">
-        <v>681</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>680</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>1005</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>921</v>
-      </c>
-      <c r="AB11" s="9">
-        <v>753</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>836</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1407</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>1200</v>
-      </c>
-      <c r="AF11" s="10">
-        <v>1332</v>
-      </c>
-      <c r="AG11" s="10">
-        <v>1459</v>
-      </c>
-      <c r="AH11" s="10">
-        <v>2135</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>1939</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>2255</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>2499</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>2083</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>2786</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>1965</v>
-      </c>
-      <c r="AO11" s="10">
-        <v>2046</v>
-      </c>
-      <c r="AP11" s="10">
-        <v>2034</v>
-      </c>
-      <c r="AQ11" s="10">
-        <v>1945</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>2187</v>
-      </c>
-      <c r="AS11" s="10">
-        <v>2437</v>
-      </c>
-      <c r="AT11" s="10">
-        <v>2503</v>
-      </c>
-      <c r="AU11" s="10">
-        <v>1752</v>
-      </c>
-      <c r="AV11" s="10">
-        <v>1371</v>
-      </c>
-      <c r="AW11" s="10">
-        <v>1816</v>
-      </c>
-      <c r="AX11" s="10">
-        <v>2289</v>
-      </c>
-      <c r="AY11" s="10">
-        <v>2495</v>
-      </c>
-      <c r="AZ11" s="10">
-        <v>2284</v>
-      </c>
-      <c r="BA11" s="10">
-        <v>2002</v>
-      </c>
-      <c r="BB11" s="10">
-        <v>2284</v>
-      </c>
-      <c r="BC11" s="10">
-        <v>2107</v>
-      </c>
-      <c r="BD11" s="10">
-        <v>2283</v>
-      </c>
-      <c r="BE11" s="10">
-        <v>2033</v>
-      </c>
-      <c r="BF11" s="10">
-        <v>2358</v>
-      </c>
-      <c r="BG11" s="10">
-        <v>1984</v>
-      </c>
-      <c r="BH11" s="10">
-        <v>1708</v>
-      </c>
-      <c r="BI11" s="10">
-        <v>1807</v>
-      </c>
-      <c r="BJ11" s="10">
-        <v>1899</v>
-      </c>
-      <c r="BK11" s="10">
-        <v>2043</v>
-      </c>
-      <c r="BL11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="BM11" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10">
-        <v>136315</v>
-      </c>
-      <c r="E12" s="10">
-        <v>138923</v>
-      </c>
-      <c r="F12" s="10">
-        <v>143060</v>
-      </c>
-      <c r="G12" s="10">
-        <v>147608</v>
-      </c>
-      <c r="H12" s="10">
-        <v>152259</v>
-      </c>
-      <c r="I12" s="10">
-        <v>154050</v>
-      </c>
-      <c r="J12" s="10">
-        <v>153499</v>
-      </c>
-      <c r="K12" s="10">
-        <v>153338</v>
-      </c>
-      <c r="L12" s="10">
-        <v>154725</v>
-      </c>
-      <c r="M12" s="10">
-        <v>156234</v>
-      </c>
-      <c r="N12" s="10">
-        <v>159408</v>
-      </c>
-      <c r="O12" s="10">
-        <v>162307</v>
-      </c>
-      <c r="P12" s="10">
-        <v>166730</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>171772</v>
-      </c>
-      <c r="R12" s="10">
-        <v>179229</v>
-      </c>
-      <c r="S12" s="10">
-        <v>182600</v>
-      </c>
-      <c r="T12" s="10">
-        <v>176348</v>
-      </c>
-      <c r="U12" s="10">
-        <v>169874</v>
-      </c>
-      <c r="V12" s="10">
-        <v>161446</v>
-      </c>
-      <c r="W12" s="10">
-        <v>154192</v>
-      </c>
-      <c r="X12" s="10">
-        <v>156861</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>159697</v>
-      </c>
-      <c r="Z12" s="10">
-        <v>160649</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>159807</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>156583</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>151468</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>147967</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>143470</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>140272</v>
-      </c>
-      <c r="AG12" s="10">
-        <v>137016</v>
-      </c>
-      <c r="AH12" s="10">
-        <v>136564</v>
-      </c>
-      <c r="AI12" s="10">
-        <v>136915</v>
-      </c>
-      <c r="AJ12" s="10">
-        <v>138744</v>
-      </c>
-      <c r="AK12" s="10">
-        <v>141044</v>
-      </c>
-      <c r="AL12" s="10">
-        <v>143162</v>
-      </c>
-      <c r="AM12" s="10">
-        <v>145835</v>
-      </c>
-      <c r="AN12" s="10">
-        <v>145336</v>
-      </c>
-      <c r="AO12" s="10">
-        <v>142663</v>
-      </c>
-      <c r="AP12" s="10">
-        <v>140590</v>
-      </c>
-      <c r="AQ12" s="10">
-        <v>139856</v>
-      </c>
-      <c r="AR12" s="10">
-        <v>139017</v>
-      </c>
-      <c r="AS12" s="10">
-        <v>138035</v>
-      </c>
-      <c r="AT12" s="10">
-        <v>137450</v>
-      </c>
-      <c r="AU12" s="10">
-        <v>135445</v>
-      </c>
-      <c r="AV12" s="10">
-        <v>133034</v>
-      </c>
-      <c r="AW12" s="10">
-        <v>133940</v>
-      </c>
-      <c r="AX12" s="10">
-        <v>135647</v>
-      </c>
-      <c r="AY12" s="10">
-        <v>135827</v>
-      </c>
-      <c r="AZ12" s="10">
-        <v>134477</v>
-      </c>
-      <c r="BA12" s="10">
-        <v>132662</v>
-      </c>
-      <c r="BB12" s="10">
-        <v>132105</v>
-      </c>
-      <c r="BC12" s="10">
-        <v>130351</v>
-      </c>
-      <c r="BD12" s="10">
-        <v>127912</v>
-      </c>
-      <c r="BE12" s="10">
-        <v>125758</v>
-      </c>
-      <c r="BF12" s="10">
-        <v>124123</v>
-      </c>
-      <c r="BG12" s="10">
-        <v>125244</v>
-      </c>
-      <c r="BH12" s="10">
-        <v>128659</v>
-      </c>
-      <c r="BI12" s="10">
-        <v>131190</v>
-      </c>
-      <c r="BJ12" s="10">
-        <v>132510</v>
-      </c>
-      <c r="BK12" s="10">
-        <v>132908</v>
-      </c>
-      <c r="BL12" s="10">
-        <v>132223</v>
-      </c>
-      <c r="BM12" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9">
-        <v>23</v>
-      </c>
-      <c r="H13" s="9">
-        <v>62</v>
-      </c>
-      <c r="I13" s="9">
-        <v>54</v>
-      </c>
-      <c r="J13" s="9">
-        <v>35</v>
-      </c>
-      <c r="K13" s="9">
-        <v>55</v>
-      </c>
-      <c r="L13" s="9">
-        <v>36</v>
-      </c>
-      <c r="M13" s="9">
-        <v>39</v>
-      </c>
-      <c r="N13" s="9">
-        <v>88</v>
-      </c>
-      <c r="O13" s="9">
-        <v>93</v>
-      </c>
-      <c r="P13" s="9">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>273</v>
-      </c>
-      <c r="R13" s="9">
-        <v>204</v>
-      </c>
-      <c r="S13" s="9">
-        <v>196</v>
-      </c>
-      <c r="T13" s="9">
-        <v>205</v>
-      </c>
-      <c r="U13" s="9">
-        <v>107</v>
-      </c>
-      <c r="V13" s="9">
-        <v>122</v>
-      </c>
-      <c r="W13" s="9">
-        <v>66</v>
-      </c>
-      <c r="X13" s="9">
-        <v>66</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>88</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>58</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>56</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>71</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>125</v>
-      </c>
-      <c r="AD13" s="9">
-        <v>108</v>
-      </c>
-      <c r="AE13" s="9">
-        <v>131</v>
-      </c>
-      <c r="AF13" s="9">
-        <v>321</v>
-      </c>
-      <c r="AG13" s="9">
-        <v>169</v>
-      </c>
-      <c r="AH13" s="9">
-        <v>120</v>
-      </c>
-      <c r="AI13" s="9">
-        <v>311</v>
-      </c>
-      <c r="AJ13" s="9">
-        <v>322</v>
-      </c>
-      <c r="AK13" s="9">
-        <v>153</v>
-      </c>
-      <c r="AL13" s="9">
-        <v>231</v>
-      </c>
-      <c r="AM13" s="9">
-        <v>95</v>
-      </c>
-      <c r="AN13" s="9">
-        <v>174</v>
-      </c>
-      <c r="AO13" s="9">
-        <v>284</v>
-      </c>
-      <c r="AP13" s="9">
-        <v>285</v>
-      </c>
-      <c r="AQ13" s="9">
-        <v>330</v>
-      </c>
-      <c r="AR13" s="9">
-        <v>482</v>
-      </c>
-      <c r="AS13" s="9">
-        <v>449</v>
-      </c>
-      <c r="AT13" s="9">
-        <v>244</v>
-      </c>
-      <c r="AU13" s="9">
-        <v>99</v>
-      </c>
-      <c r="AV13" s="9">
-        <v>16</v>
-      </c>
-      <c r="AW13" s="9">
-        <v>22</v>
-      </c>
-      <c r="AX13" s="9">
-        <v>50</v>
-      </c>
-      <c r="AY13" s="9">
-        <v>66</v>
-      </c>
-      <c r="AZ13" s="9">
-        <v>107</v>
-      </c>
-      <c r="BA13" s="9">
-        <v>58</v>
-      </c>
-      <c r="BB13" s="9">
-        <v>91</v>
-      </c>
-      <c r="BC13" s="9">
-        <v>194</v>
-      </c>
-      <c r="BD13" s="9">
-        <v>191</v>
-      </c>
-      <c r="BE13" s="9">
-        <v>161</v>
-      </c>
-      <c r="BF13" s="9">
-        <v>108</v>
-      </c>
-      <c r="BG13" s="9">
-        <v>73</v>
-      </c>
-      <c r="BH13" s="9">
-        <v>69</v>
-      </c>
-      <c r="BI13" s="9">
-        <v>193</v>
-      </c>
-      <c r="BJ13" s="9">
-        <v>244</v>
-      </c>
-      <c r="BK13" s="9">
-        <v>307</v>
-      </c>
-      <c r="BL13" s="9">
-        <v>255</v>
-      </c>
-      <c r="BM13" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5773</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5179</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5453</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5229</v>
-      </c>
-      <c r="H14" s="10">
-        <v>6524</v>
-      </c>
-      <c r="I14" s="10">
-        <v>8074</v>
-      </c>
-      <c r="J14" s="10">
-        <v>7556</v>
-      </c>
-      <c r="K14" s="10">
-        <v>6754</v>
-      </c>
-      <c r="L14" s="10">
-        <v>6843</v>
-      </c>
-      <c r="M14" s="10">
-        <v>6920</v>
-      </c>
-      <c r="N14" s="10">
-        <v>6116</v>
-      </c>
-      <c r="O14" s="10">
-        <v>6375</v>
-      </c>
-      <c r="P14" s="10">
-        <v>5992</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>6248</v>
-      </c>
-      <c r="R14" s="10">
-        <v>7514</v>
-      </c>
-      <c r="S14" s="10">
-        <v>11557</v>
-      </c>
-      <c r="T14" s="10">
-        <v>10619</v>
-      </c>
-      <c r="U14" s="10">
-        <v>9864</v>
-      </c>
-      <c r="V14" s="10">
-        <v>8470</v>
-      </c>
-      <c r="W14" s="10">
-        <v>5930</v>
-      </c>
-      <c r="X14" s="10">
-        <v>6334</v>
-      </c>
-      <c r="Y14" s="10">
-        <v>6643</v>
-      </c>
-      <c r="Z14" s="10">
-        <v>7354</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>7597</v>
-      </c>
-      <c r="AB14" s="10">
-        <v>8621</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>7391</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>7961</v>
-      </c>
-      <c r="AE14" s="10">
-        <v>6610</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>6338</v>
-      </c>
-      <c r="AG14" s="10">
-        <v>6316</v>
-      </c>
-      <c r="AH14" s="10">
-        <v>5920</v>
-      </c>
-      <c r="AI14" s="10">
-        <v>5623</v>
-      </c>
-      <c r="AJ14" s="10">
-        <v>5846</v>
-      </c>
-      <c r="AK14" s="10">
-        <v>6088</v>
-      </c>
-      <c r="AL14" s="10">
-        <v>5941</v>
-      </c>
-      <c r="AM14" s="10">
-        <v>6281</v>
-      </c>
-      <c r="AN14" s="10">
-        <v>7274</v>
-      </c>
-      <c r="AO14" s="10">
-        <v>6560</v>
-      </c>
-      <c r="AP14" s="10">
-        <v>5982</v>
-      </c>
-      <c r="AQ14" s="10">
-        <v>5708</v>
-      </c>
-      <c r="AR14" s="10">
-        <v>5524</v>
-      </c>
-      <c r="AS14" s="10">
-        <v>5774</v>
-      </c>
-      <c r="AT14" s="10">
-        <v>5759</v>
-      </c>
-      <c r="AU14" s="10">
-        <v>6129</v>
-      </c>
-      <c r="AV14" s="10">
-        <v>5162</v>
-      </c>
-      <c r="AW14" s="10">
-        <v>4859</v>
-      </c>
-      <c r="AX14" s="10">
-        <v>5426</v>
-      </c>
-      <c r="AY14" s="10">
-        <v>5767</v>
-      </c>
-      <c r="AZ14" s="10">
-        <v>6263</v>
-      </c>
-      <c r="BA14" s="10">
-        <v>6248</v>
-      </c>
-      <c r="BB14" s="10">
-        <v>6542</v>
-      </c>
-      <c r="BC14" s="10">
-        <v>6819</v>
-      </c>
-      <c r="BD14" s="10">
-        <v>6551</v>
-      </c>
-      <c r="BE14" s="10">
-        <v>6356</v>
-      </c>
-      <c r="BF14" s="10">
-        <v>5469</v>
-      </c>
-      <c r="BG14" s="10">
-        <v>5234</v>
-      </c>
-      <c r="BH14" s="10">
-        <v>5512</v>
-      </c>
-      <c r="BI14" s="10">
-        <v>5861</v>
-      </c>
-      <c r="BJ14" s="10">
-        <v>6270</v>
-      </c>
-      <c r="BK14" s="10">
-        <v>6509</v>
-      </c>
-      <c r="BL14" s="10">
-        <v>6370</v>
-      </c>
-      <c r="BM14" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="10">
-        <v>8615</v>
-      </c>
-      <c r="E15" s="10">
-        <v>8080</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7857</v>
-      </c>
-      <c r="G15" s="10">
-        <v>7204</v>
-      </c>
-      <c r="H15" s="10">
-        <v>7632</v>
-      </c>
-      <c r="I15" s="10">
-        <v>7788</v>
-      </c>
-      <c r="J15" s="10">
-        <v>6863</v>
-      </c>
-      <c r="K15" s="10">
-        <v>6110</v>
-      </c>
-      <c r="L15" s="10">
-        <v>5616</v>
-      </c>
-      <c r="M15" s="10">
-        <v>5011</v>
-      </c>
-      <c r="N15" s="10">
-        <v>4203</v>
-      </c>
-      <c r="O15" s="10">
-        <v>3825</v>
-      </c>
-      <c r="P15" s="10">
-        <v>3201</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>2404</v>
-      </c>
-      <c r="R15" s="10">
-        <v>3175</v>
-      </c>
-      <c r="S15" s="10">
-        <v>5406</v>
-      </c>
-      <c r="T15" s="10">
-        <v>5527</v>
-      </c>
-      <c r="U15" s="10">
-        <v>5692</v>
-      </c>
-      <c r="V15" s="10">
-        <v>4302</v>
-      </c>
-      <c r="W15" s="10">
-        <v>2927</v>
-      </c>
-      <c r="X15" s="10">
-        <v>2679</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>2886</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>3106</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>3162</v>
-      </c>
-      <c r="AB15" s="10">
-        <v>3367</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>3455</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>3478</v>
-      </c>
-      <c r="AE15" s="10">
-        <v>2902</v>
-      </c>
-      <c r="AF15" s="10">
-        <v>2556</v>
-      </c>
-      <c r="AG15" s="10">
-        <v>2223</v>
-      </c>
-      <c r="AH15" s="10">
-        <v>1838</v>
-      </c>
-      <c r="AI15" s="10">
-        <v>1484</v>
-      </c>
-      <c r="AJ15" s="10">
-        <v>1420</v>
-      </c>
-      <c r="AK15" s="10">
-        <v>1242</v>
-      </c>
-      <c r="AL15" s="10">
-        <v>1315</v>
-      </c>
-      <c r="AM15" s="10">
-        <v>1477</v>
-      </c>
-      <c r="AN15" s="10">
-        <v>1815</v>
-      </c>
-      <c r="AO15" s="10">
-        <v>1619</v>
-      </c>
-      <c r="AP15" s="10">
-        <v>1501</v>
-      </c>
-      <c r="AQ15" s="10">
-        <v>1322</v>
-      </c>
-      <c r="AR15" s="10">
-        <v>1172</v>
-      </c>
-      <c r="AS15" s="10">
-        <v>1047</v>
-      </c>
-      <c r="AT15" s="10">
-        <v>1082</v>
-      </c>
-      <c r="AU15" s="10">
-        <v>1039</v>
-      </c>
-      <c r="AV15" s="9">
-        <v>879</v>
-      </c>
-      <c r="AW15" s="9">
-        <v>772</v>
-      </c>
-      <c r="AX15" s="9">
-        <v>748</v>
-      </c>
-      <c r="AY15" s="9">
-        <v>795</v>
-      </c>
-      <c r="AZ15" s="9">
-        <v>993</v>
-      </c>
-      <c r="BA15" s="9">
-        <v>980</v>
-      </c>
-      <c r="BB15" s="9">
-        <v>917</v>
-      </c>
-      <c r="BC15" s="9">
-        <v>885</v>
-      </c>
-      <c r="BD15" s="9">
-        <v>801</v>
-      </c>
-      <c r="BE15" s="9">
-        <v>788</v>
-      </c>
-      <c r="BF15" s="9">
-        <v>591</v>
-      </c>
-      <c r="BG15" s="9">
-        <v>476</v>
-      </c>
-      <c r="BH15" s="9">
-        <v>513</v>
-      </c>
-      <c r="BI15" s="9">
-        <v>537</v>
-      </c>
-      <c r="BJ15" s="9">
-        <v>604</v>
-      </c>
-      <c r="BK15" s="9">
-        <v>609</v>
-      </c>
-      <c r="BL15" s="9">
-        <v>585</v>
-      </c>
-      <c r="BM15" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="10">
-        <v>34644</v>
-      </c>
-      <c r="E16" s="10">
-        <v>34551</v>
-      </c>
-      <c r="F16" s="10">
-        <v>34768</v>
-      </c>
-      <c r="G16" s="10">
-        <v>35274</v>
-      </c>
-      <c r="H16" s="10">
-        <v>39310</v>
-      </c>
-      <c r="I16" s="10">
-        <v>40959</v>
-      </c>
-      <c r="J16" s="10">
-        <v>41036</v>
-      </c>
-      <c r="K16" s="10">
-        <v>40407</v>
-      </c>
-      <c r="L16" s="10">
-        <v>41034</v>
-      </c>
-      <c r="M16" s="10">
-        <v>40584</v>
-      </c>
-      <c r="N16" s="10">
-        <v>39559</v>
-      </c>
-      <c r="O16" s="10">
-        <v>39730</v>
-      </c>
-      <c r="P16" s="10">
-        <v>39335</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>36506</v>
-      </c>
-      <c r="R16" s="10">
-        <v>40528</v>
-      </c>
-      <c r="S16" s="10">
-        <v>46872</v>
-      </c>
-      <c r="T16" s="10">
-        <v>48726</v>
-      </c>
-      <c r="U16" s="10">
-        <v>48073</v>
-      </c>
-      <c r="V16" s="10">
-        <v>44272</v>
-      </c>
-      <c r="W16" s="10">
-        <v>36932</v>
-      </c>
-      <c r="X16" s="10">
-        <v>36795</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>38151</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>39264</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>40136</v>
-      </c>
-      <c r="AB16" s="10">
-        <v>41259</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>40048</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>41046</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>38792</v>
-      </c>
-      <c r="AF16" s="10">
-        <v>37880</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>36328</v>
-      </c>
-      <c r="AH16" s="10">
-        <v>35277</v>
-      </c>
-      <c r="AI16" s="10">
-        <v>34369</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>34489</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>34746</v>
-      </c>
-      <c r="AL16" s="10">
-        <v>35692</v>
-      </c>
-      <c r="AM16" s="10">
-        <v>37295</v>
-      </c>
-      <c r="AN16" s="10">
-        <v>38575</v>
-      </c>
-      <c r="AO16" s="10">
-        <v>38111</v>
-      </c>
-      <c r="AP16" s="10">
-        <v>37138</v>
-      </c>
-      <c r="AQ16" s="10">
-        <v>37642</v>
-      </c>
-      <c r="AR16" s="10">
-        <v>37588</v>
-      </c>
-      <c r="AS16" s="10">
-        <v>36576</v>
-      </c>
-      <c r="AT16" s="10">
-        <v>36970</v>
-      </c>
-      <c r="AU16" s="10">
-        <v>36686</v>
-      </c>
-      <c r="AV16" s="10">
-        <v>33759</v>
-      </c>
-      <c r="AW16" s="10">
-        <v>33311</v>
-      </c>
-      <c r="AX16" s="10">
-        <v>34597</v>
-      </c>
-      <c r="AY16" s="10">
-        <v>35209</v>
-      </c>
-      <c r="AZ16" s="10">
-        <v>35508</v>
-      </c>
-      <c r="BA16" s="10">
-        <v>34468</v>
-      </c>
-      <c r="BB16" s="10">
-        <v>35324</v>
-      </c>
-      <c r="BC16" s="10">
-        <v>35108</v>
-      </c>
-      <c r="BD16" s="10">
-        <v>33873</v>
-      </c>
-      <c r="BE16" s="10">
-        <v>33353</v>
-      </c>
-      <c r="BF16" s="10">
-        <v>30857</v>
-      </c>
-      <c r="BG16" s="10">
-        <v>29320</v>
-      </c>
-      <c r="BH16" s="10">
-        <v>31189</v>
-      </c>
-      <c r="BI16" s="10">
-        <v>32818</v>
-      </c>
-      <c r="BJ16" s="10">
-        <v>33704</v>
-      </c>
-      <c r="BK16" s="10">
-        <v>34265</v>
-      </c>
-      <c r="BL16" s="10">
-        <v>33116</v>
-      </c>
-      <c r="BM16" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="10">
-        <v>3939</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3979</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3785</v>
-      </c>
-      <c r="G17" s="10">
-        <v>4040</v>
-      </c>
-      <c r="H17" s="10">
-        <v>4232</v>
-      </c>
-      <c r="I17" s="10">
-        <v>4248</v>
-      </c>
-      <c r="J17" s="10">
-        <v>4049</v>
-      </c>
-      <c r="K17" s="10">
-        <v>4045</v>
-      </c>
-      <c r="L17" s="10">
-        <v>4012</v>
-      </c>
-      <c r="M17" s="10">
-        <v>4123</v>
-      </c>
-      <c r="N17" s="10">
-        <v>4297</v>
-      </c>
-      <c r="O17" s="10">
-        <v>4442</v>
-      </c>
-      <c r="P17" s="10">
-        <v>5126</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>6487</v>
-      </c>
-      <c r="R17" s="10">
-        <v>6110</v>
-      </c>
-      <c r="S17" s="10">
-        <v>6992</v>
-      </c>
-      <c r="T17" s="10">
-        <v>5190</v>
-      </c>
-      <c r="U17" s="10">
-        <v>6000</v>
-      </c>
-      <c r="V17" s="10">
-        <v>6188</v>
-      </c>
-      <c r="W17" s="10">
-        <v>5952</v>
-      </c>
-      <c r="X17" s="10">
-        <v>5649</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>6014</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>6326</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>6255</v>
-      </c>
-      <c r="AB17" s="10">
-        <v>5671</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>5917</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>4695</v>
-      </c>
-      <c r="AE17" s="10">
-        <v>4925</v>
-      </c>
-      <c r="AF17" s="10">
-        <v>5331</v>
-      </c>
-      <c r="AG17" s="10">
-        <v>4703</v>
-      </c>
-      <c r="AH17" s="10">
-        <v>4774</v>
-      </c>
-      <c r="AI17" s="10">
-        <v>4679</v>
-      </c>
-      <c r="AJ17" s="10">
-        <v>4757</v>
-      </c>
-      <c r="AK17" s="10">
-        <v>5171</v>
-      </c>
-      <c r="AL17" s="10">
-        <v>4454</v>
-      </c>
-      <c r="AM17" s="10">
-        <v>4897</v>
-      </c>
-      <c r="AN17" s="10">
-        <v>4931</v>
-      </c>
-      <c r="AO17" s="10">
-        <v>4524</v>
-      </c>
-      <c r="AP17" s="10">
-        <v>4052</v>
-      </c>
-      <c r="AQ17" s="10">
-        <v>3685</v>
-      </c>
-      <c r="AR17" s="10">
-        <v>3649</v>
-      </c>
-      <c r="AS17" s="10">
-        <v>4287</v>
-      </c>
-      <c r="AT17" s="10">
-        <v>4136</v>
-      </c>
-      <c r="AU17" s="10">
-        <v>4257</v>
-      </c>
-      <c r="AV17" s="10">
-        <v>4241</v>
-      </c>
-      <c r="AW17" s="10">
-        <v>4265</v>
-      </c>
-      <c r="AX17" s="10">
-        <v>4427</v>
-      </c>
-      <c r="AY17" s="10">
-        <v>4517</v>
-      </c>
-      <c r="AZ17" s="10">
-        <v>4141</v>
-      </c>
-      <c r="BA17" s="10">
-        <v>4055</v>
-      </c>
-      <c r="BB17" s="10">
-        <v>3803</v>
-      </c>
-      <c r="BC17" s="10">
-        <v>3889</v>
-      </c>
-      <c r="BD17" s="10">
-        <v>3753</v>
-      </c>
-      <c r="BE17" s="10">
-        <v>4001</v>
-      </c>
-      <c r="BF17" s="10">
-        <v>3985</v>
-      </c>
-      <c r="BG17" s="10">
-        <v>3963</v>
-      </c>
-      <c r="BH17" s="10">
-        <v>3776</v>
-      </c>
-      <c r="BI17" s="10">
-        <v>3881</v>
-      </c>
-      <c r="BJ17" s="10">
-        <v>3757</v>
-      </c>
-      <c r="BK17" s="10">
-        <v>3923</v>
-      </c>
-      <c r="BL17" s="10">
-        <v>3752</v>
-      </c>
-      <c r="BM17" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10">
-        <v>97700</v>
-      </c>
-      <c r="E18" s="10">
-        <v>100369</v>
-      </c>
-      <c r="F18" s="10">
-        <v>104488</v>
-      </c>
-      <c r="G18" s="10">
-        <v>107903</v>
-      </c>
-      <c r="H18" s="10">
-        <v>109000</v>
-      </c>
-      <c r="I18" s="10">
-        <v>108862</v>
-      </c>
-      <c r="J18" s="10">
-        <v>108783</v>
-      </c>
-      <c r="K18" s="10">
-        <v>109371</v>
-      </c>
-      <c r="L18" s="10">
-        <v>110015</v>
-      </c>
-      <c r="M18" s="10">
-        <v>112369</v>
-      </c>
-      <c r="N18" s="10">
-        <v>114578</v>
-      </c>
-      <c r="O18" s="10">
-        <v>117862</v>
-      </c>
-      <c r="P18" s="10">
-        <v>121539</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>127788</v>
-      </c>
-      <c r="R18" s="10">
-        <v>132028</v>
-      </c>
-      <c r="S18" s="10">
-        <v>127980</v>
-      </c>
-      <c r="T18" s="10">
-        <v>122810</v>
-      </c>
-      <c r="U18" s="10">
-        <v>116375</v>
-      </c>
-      <c r="V18" s="10">
-        <v>110864</v>
-      </c>
-      <c r="W18" s="10">
-        <v>111242</v>
-      </c>
-      <c r="X18" s="10">
-        <v>114351</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>115444</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>115001</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>113360</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>109582</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>105378</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>102118</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>99622</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>96740</v>
-      </c>
-      <c r="AG18" s="10">
-        <v>95816</v>
-      </c>
-      <c r="AH18" s="10">
-        <v>96393</v>
-      </c>
-      <c r="AI18" s="10">
-        <v>97556</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>99176</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>100974</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>102785</v>
-      </c>
-      <c r="AM18" s="10">
-        <v>103548</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>101656</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>99744</v>
-      </c>
-      <c r="AP18" s="10">
-        <v>99115</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>98199</v>
-      </c>
-      <c r="AR18" s="10">
-        <v>97298</v>
-      </c>
-      <c r="AS18" s="10">
-        <v>96723</v>
-      </c>
-      <c r="AT18" s="10">
-        <v>96100</v>
-      </c>
-      <c r="AU18" s="10">
-        <v>94403</v>
-      </c>
-      <c r="AV18" s="10">
-        <v>95018</v>
-      </c>
-      <c r="AW18" s="10">
-        <v>96342</v>
-      </c>
-      <c r="AX18" s="10">
-        <v>96573</v>
-      </c>
-      <c r="AY18" s="10">
-        <v>96035</v>
-      </c>
-      <c r="AZ18" s="10">
-        <v>94721</v>
-      </c>
-      <c r="BA18" s="10">
-        <v>94081</v>
-      </c>
-      <c r="BB18" s="10">
-        <v>92887</v>
-      </c>
-      <c r="BC18" s="10">
-        <v>91160</v>
-      </c>
-      <c r="BD18" s="10">
-        <v>90095</v>
-      </c>
-      <c r="BE18" s="10">
-        <v>88243</v>
-      </c>
-      <c r="BF18" s="10">
-        <v>89173</v>
-      </c>
-      <c r="BG18" s="10">
-        <v>91888</v>
-      </c>
-      <c r="BH18" s="10">
-        <v>93625</v>
-      </c>
-      <c r="BI18" s="10">
-        <v>94298</v>
-      </c>
-      <c r="BJ18" s="10">
-        <v>94805</v>
-      </c>
-      <c r="BK18" s="10">
-        <v>94413</v>
-      </c>
-      <c r="BL18" s="10">
-        <v>95100</v>
-      </c>
-      <c r="BM18" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10">
-        <v>136315</v>
-      </c>
-      <c r="E19" s="10">
-        <v>138923</v>
-      </c>
-      <c r="F19" s="10">
-        <v>143060</v>
-      </c>
-      <c r="G19" s="10">
-        <v>107926</v>
-      </c>
-      <c r="H19" s="10">
-        <v>109062</v>
-      </c>
-      <c r="I19" s="10">
-        <v>108916</v>
-      </c>
-      <c r="J19" s="10">
-        <v>153903</v>
-      </c>
-      <c r="K19" s="10">
-        <v>153878</v>
-      </c>
-      <c r="L19" s="10">
-        <v>155097</v>
-      </c>
-      <c r="M19" s="10">
-        <v>157115</v>
-      </c>
-      <c r="N19" s="10">
-        <v>158522</v>
-      </c>
-      <c r="O19" s="10">
-        <v>162127</v>
-      </c>
-      <c r="P19" s="10">
-        <v>166104</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>171054</v>
-      </c>
-      <c r="R19" s="10">
-        <v>178870</v>
-      </c>
-      <c r="S19" s="10">
-        <v>182040</v>
-      </c>
-      <c r="T19" s="10">
-        <v>176931</v>
-      </c>
-      <c r="U19" s="10">
-        <v>170555</v>
-      </c>
-      <c r="V19" s="10">
-        <v>161446</v>
-      </c>
-      <c r="W19" s="10">
-        <v>154192</v>
-      </c>
-      <c r="X19" s="10">
-        <v>156861</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>159697</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>160649</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>159807</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>156583</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>151468</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>147967</v>
-      </c>
-      <c r="AE19" s="10">
-        <v>143470</v>
-      </c>
-      <c r="AF19" s="10">
-        <v>140272</v>
-      </c>
-      <c r="AG19" s="10">
-        <v>137016</v>
-      </c>
-      <c r="AH19" s="10">
-        <v>136564</v>
-      </c>
-      <c r="AI19" s="10">
-        <v>136915</v>
-      </c>
-      <c r="AJ19" s="10">
-        <v>138744</v>
-      </c>
-      <c r="AK19" s="10">
-        <v>141044</v>
-      </c>
-      <c r="AL19" s="10">
-        <v>143162</v>
-      </c>
-      <c r="AM19" s="10">
-        <v>145835</v>
-      </c>
-      <c r="AN19" s="10">
-        <v>145336</v>
-      </c>
-      <c r="AO19" s="10">
-        <v>142663</v>
-      </c>
-      <c r="AP19" s="10">
-        <v>140590</v>
-      </c>
-      <c r="AQ19" s="10">
-        <v>139856</v>
-      </c>
-      <c r="AR19" s="10">
-        <v>139017</v>
-      </c>
-      <c r="AS19" s="10">
-        <v>138035</v>
-      </c>
-      <c r="AT19" s="10">
-        <v>137450</v>
-      </c>
-      <c r="AU19" s="10">
-        <v>135445</v>
-      </c>
-      <c r="AV19" s="10">
-        <v>133034</v>
-      </c>
-      <c r="AW19" s="10">
-        <v>133940</v>
-      </c>
-      <c r="AX19" s="10">
-        <v>135647</v>
-      </c>
-      <c r="AY19" s="10">
-        <v>135827</v>
-      </c>
-      <c r="AZ19" s="10">
-        <v>134477</v>
-      </c>
-      <c r="BA19" s="10">
-        <v>132662</v>
-      </c>
-      <c r="BB19" s="10">
-        <v>132105</v>
-      </c>
-      <c r="BC19" s="10">
-        <v>130351</v>
-      </c>
-      <c r="BD19" s="10">
-        <v>127912</v>
-      </c>
-      <c r="BE19" s="10">
-        <v>125758</v>
-      </c>
-      <c r="BF19" s="10">
-        <v>124123</v>
-      </c>
-      <c r="BG19" s="10">
-        <v>125244</v>
-      </c>
-      <c r="BH19" s="10">
-        <v>128659</v>
-      </c>
-      <c r="BI19" s="10">
-        <v>131190</v>
-      </c>
-      <c r="BJ19" s="10">
-        <v>132510</v>
-      </c>
-      <c r="BK19" s="10">
-        <v>132908</v>
-      </c>
-      <c r="BL19" s="10">
-        <v>132223</v>
-      </c>
-      <c r="BM19" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10684,7 +7928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E816"/>
   <sheetViews>
@@ -24518,12 +21762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25995,6 +23239,2759 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A1FC0-679C-AE41-AB79-1BD86DCF5A1D}">
+  <dimension ref="A6:BM19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1960</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1961</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1962</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1963</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1964</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1965</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1966</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1967</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1968</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1969</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1970</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1971</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1972</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1973</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1974</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1975</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1976</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1977</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1978</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1979</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1980</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1981</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1982</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1983</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>1984</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1985</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>1986</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>1987</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1988</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>1989</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>1990</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>1991</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>1992</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>1993</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>1994</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>1995</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>1996</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>1997</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>1998</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>1999</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>2001</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>2002</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>2003</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>2004</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>2005</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>2006</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>2007</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>2008</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>2009</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>2010</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>2012</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>2013</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>2014</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>2015</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>2016</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>2017</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>2019</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>2020</v>
+      </c>
+      <c r="BM6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10">
+        <v>96236</v>
+      </c>
+      <c r="E7" s="10">
+        <v>97700</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100369</v>
+      </c>
+      <c r="G7" s="10">
+        <v>104488</v>
+      </c>
+      <c r="H7" s="10">
+        <v>107903</v>
+      </c>
+      <c r="I7" s="10">
+        <v>109000</v>
+      </c>
+      <c r="J7" s="10">
+        <v>108862</v>
+      </c>
+      <c r="K7" s="10">
+        <v>108783</v>
+      </c>
+      <c r="L7" s="10">
+        <v>109371</v>
+      </c>
+      <c r="M7" s="10">
+        <v>110015</v>
+      </c>
+      <c r="N7" s="10">
+        <v>112369</v>
+      </c>
+      <c r="O7" s="10">
+        <v>114578</v>
+      </c>
+      <c r="P7" s="10">
+        <v>117862</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>121539</v>
+      </c>
+      <c r="R7" s="10">
+        <v>127788</v>
+      </c>
+      <c r="S7" s="10">
+        <v>132028</v>
+      </c>
+      <c r="T7" s="10">
+        <v>127980</v>
+      </c>
+      <c r="U7" s="10">
+        <v>122810</v>
+      </c>
+      <c r="V7" s="10">
+        <v>116375</v>
+      </c>
+      <c r="W7" s="10">
+        <v>110864</v>
+      </c>
+      <c r="X7" s="10">
+        <v>111242</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>114351</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>115444</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>115001</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>113360</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>109582</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>105378</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>102118</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>99622</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>96740</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>95816</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>96393</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>97556</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>99176</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>100974</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>102785</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>103548</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>101656</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>99744</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>99115</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>98199</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>97298</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>96723</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>96100</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>94403</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>95018</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>96342</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>96573</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>96035</v>
+      </c>
+      <c r="BA7" s="10">
+        <v>94721</v>
+      </c>
+      <c r="BB7" s="10">
+        <v>94081</v>
+      </c>
+      <c r="BC7" s="10">
+        <v>92887</v>
+      </c>
+      <c r="BD7" s="10">
+        <v>91160</v>
+      </c>
+      <c r="BE7" s="10">
+        <v>90095</v>
+      </c>
+      <c r="BF7" s="10">
+        <v>88243</v>
+      </c>
+      <c r="BG7" s="10">
+        <v>89173</v>
+      </c>
+      <c r="BH7" s="10">
+        <v>91888</v>
+      </c>
+      <c r="BI7" s="10">
+        <v>93625</v>
+      </c>
+      <c r="BJ7" s="10">
+        <v>94298</v>
+      </c>
+      <c r="BK7" s="10">
+        <v>94805</v>
+      </c>
+      <c r="BL7" s="10">
+        <v>94413</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10">
+        <v>17650</v>
+      </c>
+      <c r="E8" s="10">
+        <v>17390</v>
+      </c>
+      <c r="F8" s="10">
+        <v>17090</v>
+      </c>
+      <c r="G8" s="10">
+        <v>16570</v>
+      </c>
+      <c r="H8" s="10">
+        <v>15960</v>
+      </c>
+      <c r="I8" s="10">
+        <v>15380</v>
+      </c>
+      <c r="J8" s="10">
+        <v>14490</v>
+      </c>
+      <c r="K8" s="10">
+        <v>13725</v>
+      </c>
+      <c r="L8" s="10">
+        <v>13115</v>
+      </c>
+      <c r="M8" s="10">
+        <v>12550</v>
+      </c>
+      <c r="N8" s="10">
+        <v>12091</v>
+      </c>
+      <c r="O8" s="10">
+        <v>11909</v>
+      </c>
+      <c r="P8" s="10">
+        <v>11776</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>11622</v>
+      </c>
+      <c r="R8" s="10">
+        <v>11297</v>
+      </c>
+      <c r="S8" s="10">
+        <v>11220</v>
+      </c>
+      <c r="T8" s="10">
+        <v>11071</v>
+      </c>
+      <c r="U8" s="10">
+        <v>10998</v>
+      </c>
+      <c r="V8" s="10">
+        <v>10896</v>
+      </c>
+      <c r="W8" s="10">
+        <v>10790</v>
+      </c>
+      <c r="X8" s="10">
+        <v>10758</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>10849</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>10986</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>11047</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>11059</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>10777</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>11116</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>10466</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>10311</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>10137</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>10015</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>9965</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>9728</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>9658</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>9507</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>9482</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>9420</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>9318</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>9199</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>9128</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>9183</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>9172</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>9106</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>9142</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>8988</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>9004</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>9104</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>9145</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>9257</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>9333</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>9087</v>
+      </c>
+      <c r="BC8" s="10">
+        <v>9156</v>
+      </c>
+      <c r="BD8" s="10">
+        <v>9236</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>9221</v>
+      </c>
+      <c r="BF8" s="10">
+        <v>9208</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>9307</v>
+      </c>
+      <c r="BH8" s="10">
+        <v>9310</v>
+      </c>
+      <c r="BI8" s="10">
+        <v>9346</v>
+      </c>
+      <c r="BJ8" s="10">
+        <v>9432</v>
+      </c>
+      <c r="BK8" s="10">
+        <v>9353</v>
+      </c>
+      <c r="BL8" s="10">
+        <v>9335</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25675</v>
+      </c>
+      <c r="E9" s="10">
+        <v>26655</v>
+      </c>
+      <c r="F9" s="10">
+        <v>27996</v>
+      </c>
+      <c r="G9" s="10">
+        <v>29829</v>
+      </c>
+      <c r="H9" s="10">
+        <v>31908</v>
+      </c>
+      <c r="I9" s="10">
+        <v>33400</v>
+      </c>
+      <c r="J9" s="10">
+        <v>33500</v>
+      </c>
+      <c r="K9" s="10">
+        <v>33770</v>
+      </c>
+      <c r="L9" s="10">
+        <v>34570</v>
+      </c>
+      <c r="M9" s="10">
+        <v>35490</v>
+      </c>
+      <c r="N9" s="10">
+        <v>36689</v>
+      </c>
+      <c r="O9" s="10">
+        <v>37878</v>
+      </c>
+      <c r="P9" s="10">
+        <v>38810</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>40932</v>
+      </c>
+      <c r="R9" s="10">
+        <v>43182</v>
+      </c>
+      <c r="S9" s="10">
+        <v>45712</v>
+      </c>
+      <c r="T9" s="10">
+        <v>43901</v>
+      </c>
+      <c r="U9" s="10">
+        <v>41443</v>
+      </c>
+      <c r="V9" s="10">
+        <v>38738</v>
+      </c>
+      <c r="W9" s="10">
+        <v>37062</v>
+      </c>
+      <c r="X9" s="10">
+        <v>37107</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>38773</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>39230</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>37940</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>37484</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>35406</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>33753</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>33945</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>33183</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>32488</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>32454</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>32520</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>33007</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>33365</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>34603</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>35190</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>35319</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>34458</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>33885</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>33750</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>33575</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>33398</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>33134</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>32983</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>32531</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>32674</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>32702</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>32644</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>32435</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>31794</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>31440</v>
+      </c>
+      <c r="BC9" s="10">
+        <v>30913</v>
+      </c>
+      <c r="BD9" s="10">
+        <v>30282</v>
+      </c>
+      <c r="BE9" s="10">
+        <v>29631</v>
+      </c>
+      <c r="BF9" s="10">
+        <v>28957</v>
+      </c>
+      <c r="BG9" s="10">
+        <v>29337</v>
+      </c>
+      <c r="BH9" s="10">
+        <v>30166</v>
+      </c>
+      <c r="BI9" s="10">
+        <v>31193</v>
+      </c>
+      <c r="BJ9" s="10">
+        <v>31466</v>
+      </c>
+      <c r="BK9" s="10">
+        <v>31691</v>
+      </c>
+      <c r="BL9" s="10">
+        <v>31710</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10">
+        <v>39416</v>
+      </c>
+      <c r="E10" s="10">
+        <v>40180</v>
+      </c>
+      <c r="F10" s="10">
+        <v>41441</v>
+      </c>
+      <c r="G10" s="10">
+        <v>42268</v>
+      </c>
+      <c r="H10" s="10">
+        <v>43809</v>
+      </c>
+      <c r="I10" s="10">
+        <v>43922</v>
+      </c>
+      <c r="J10" s="10">
+        <v>43537</v>
+      </c>
+      <c r="K10" s="10">
+        <v>43803</v>
+      </c>
+      <c r="L10" s="10">
+        <v>44315</v>
+      </c>
+      <c r="M10" s="10">
+        <v>45177</v>
+      </c>
+      <c r="N10" s="10">
+        <v>45871</v>
+      </c>
+      <c r="O10" s="10">
+        <v>46738</v>
+      </c>
+      <c r="P10" s="10">
+        <v>47682</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>49194</v>
+      </c>
+      <c r="R10" s="10">
+        <v>50873</v>
+      </c>
+      <c r="S10" s="10">
+        <v>50183</v>
+      </c>
+      <c r="T10" s="10">
+        <v>47384</v>
+      </c>
+      <c r="U10" s="10">
+        <v>45931</v>
+      </c>
+      <c r="V10" s="10">
+        <v>43818</v>
+      </c>
+      <c r="W10" s="10">
+        <v>42596</v>
+      </c>
+      <c r="X10" s="10">
+        <v>44938</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>44666</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>44200</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>43885</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>42470</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>41050</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>41182</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>40152</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>39318</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>38817</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>38613</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>38583</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>38933</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>39369</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>40105</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>40264</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>39823</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>38961</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>38812</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>38796</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>38631</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>38300</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>38224</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>37593</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>37260</v>
+      </c>
+      <c r="AW10" s="10">
+        <v>37106</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>37016</v>
+      </c>
+      <c r="AY10" s="10">
+        <v>36759</v>
+      </c>
+      <c r="AZ10" s="10">
+        <v>36158</v>
+      </c>
+      <c r="BA10" s="10">
+        <v>35939</v>
+      </c>
+      <c r="BB10" s="10">
+        <v>35740</v>
+      </c>
+      <c r="BC10" s="10">
+        <v>35357</v>
+      </c>
+      <c r="BD10" s="10">
+        <v>34469</v>
+      </c>
+      <c r="BE10" s="10">
+        <v>33630</v>
+      </c>
+      <c r="BF10" s="10">
+        <v>33522</v>
+      </c>
+      <c r="BG10" s="10">
+        <v>34087</v>
+      </c>
+      <c r="BH10" s="10">
+        <v>35063</v>
+      </c>
+      <c r="BI10" s="10">
+        <v>35758</v>
+      </c>
+      <c r="BJ10" s="10">
+        <v>36313</v>
+      </c>
+      <c r="BK10" s="10">
+        <v>36060</v>
+      </c>
+      <c r="BL10" s="10">
+        <v>35800</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9">
+        <v>663</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1043</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1250</v>
+      </c>
+      <c r="G11" s="9">
+        <v>852</v>
+      </c>
+      <c r="H11" s="9">
+        <v>547</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1128</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1100</v>
+      </c>
+      <c r="K11" s="9">
+        <v>752</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1039</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1042</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1168</v>
+      </c>
+      <c r="O11" s="9">
+        <v>991</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1186</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1039</v>
+      </c>
+      <c r="R11" s="9">
+        <v>568</v>
+      </c>
+      <c r="S11" s="9">
+        <v>389</v>
+      </c>
+      <c r="T11" s="9">
+        <v>984</v>
+      </c>
+      <c r="U11" s="10">
+        <v>1133</v>
+      </c>
+      <c r="V11" s="10">
+        <v>1253</v>
+      </c>
+      <c r="W11" s="9">
+        <v>732</v>
+      </c>
+      <c r="X11" s="9">
+        <v>681</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>680</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>1005</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>921</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>753</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>836</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1407</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>1200</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>1332</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>1459</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>2135</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>1939</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>2255</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>2499</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>2083</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>2786</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>1965</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>2046</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>2034</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>1945</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>2187</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>2437</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>2503</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>1752</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>1371</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>1816</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>2289</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>2495</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>2284</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>2002</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>2284</v>
+      </c>
+      <c r="BC11" s="10">
+        <v>2107</v>
+      </c>
+      <c r="BD11" s="10">
+        <v>2283</v>
+      </c>
+      <c r="BE11" s="10">
+        <v>2033</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>2358</v>
+      </c>
+      <c r="BG11" s="10">
+        <v>1984</v>
+      </c>
+      <c r="BH11" s="10">
+        <v>1708</v>
+      </c>
+      <c r="BI11" s="10">
+        <v>1807</v>
+      </c>
+      <c r="BJ11" s="10">
+        <v>1899</v>
+      </c>
+      <c r="BK11" s="10">
+        <v>2043</v>
+      </c>
+      <c r="BL11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10">
+        <v>136315</v>
+      </c>
+      <c r="E12" s="10">
+        <v>138923</v>
+      </c>
+      <c r="F12" s="10">
+        <v>143060</v>
+      </c>
+      <c r="G12" s="10">
+        <v>147608</v>
+      </c>
+      <c r="H12" s="10">
+        <v>152259</v>
+      </c>
+      <c r="I12" s="10">
+        <v>154050</v>
+      </c>
+      <c r="J12" s="10">
+        <v>153499</v>
+      </c>
+      <c r="K12" s="10">
+        <v>153338</v>
+      </c>
+      <c r="L12" s="10">
+        <v>154725</v>
+      </c>
+      <c r="M12" s="10">
+        <v>156234</v>
+      </c>
+      <c r="N12" s="10">
+        <v>159408</v>
+      </c>
+      <c r="O12" s="10">
+        <v>162307</v>
+      </c>
+      <c r="P12" s="10">
+        <v>166730</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>171772</v>
+      </c>
+      <c r="R12" s="10">
+        <v>179229</v>
+      </c>
+      <c r="S12" s="10">
+        <v>182600</v>
+      </c>
+      <c r="T12" s="10">
+        <v>176348</v>
+      </c>
+      <c r="U12" s="10">
+        <v>169874</v>
+      </c>
+      <c r="V12" s="10">
+        <v>161446</v>
+      </c>
+      <c r="W12" s="10">
+        <v>154192</v>
+      </c>
+      <c r="X12" s="10">
+        <v>156861</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>159697</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>160649</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>159807</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>156583</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>151468</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>147967</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>143470</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>140272</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>137016</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>136564</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>136915</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>138744</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>141044</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>143162</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>145835</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>145336</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>142663</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>140590</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>139856</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>139017</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>138035</v>
+      </c>
+      <c r="AT12" s="10">
+        <v>137450</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>135445</v>
+      </c>
+      <c r="AV12" s="10">
+        <v>133034</v>
+      </c>
+      <c r="AW12" s="10">
+        <v>133940</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>135647</v>
+      </c>
+      <c r="AY12" s="10">
+        <v>135827</v>
+      </c>
+      <c r="AZ12" s="10">
+        <v>134477</v>
+      </c>
+      <c r="BA12" s="10">
+        <v>132662</v>
+      </c>
+      <c r="BB12" s="10">
+        <v>132105</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>130351</v>
+      </c>
+      <c r="BD12" s="10">
+        <v>127912</v>
+      </c>
+      <c r="BE12" s="10">
+        <v>125758</v>
+      </c>
+      <c r="BF12" s="10">
+        <v>124123</v>
+      </c>
+      <c r="BG12" s="10">
+        <v>125244</v>
+      </c>
+      <c r="BH12" s="10">
+        <v>128659</v>
+      </c>
+      <c r="BI12" s="10">
+        <v>131190</v>
+      </c>
+      <c r="BJ12" s="10">
+        <v>132510</v>
+      </c>
+      <c r="BK12" s="10">
+        <v>132908</v>
+      </c>
+      <c r="BL12" s="10">
+        <v>132223</v>
+      </c>
+      <c r="BM12" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9">
+        <v>32</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9">
+        <v>23</v>
+      </c>
+      <c r="H13" s="9">
+        <v>62</v>
+      </c>
+      <c r="I13" s="9">
+        <v>54</v>
+      </c>
+      <c r="J13" s="9">
+        <v>35</v>
+      </c>
+      <c r="K13" s="9">
+        <v>55</v>
+      </c>
+      <c r="L13" s="9">
+        <v>36</v>
+      </c>
+      <c r="M13" s="9">
+        <v>39</v>
+      </c>
+      <c r="N13" s="9">
+        <v>88</v>
+      </c>
+      <c r="O13" s="9">
+        <v>93</v>
+      </c>
+      <c r="P13" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>273</v>
+      </c>
+      <c r="R13" s="9">
+        <v>204</v>
+      </c>
+      <c r="S13" s="9">
+        <v>196</v>
+      </c>
+      <c r="T13" s="9">
+        <v>205</v>
+      </c>
+      <c r="U13" s="9">
+        <v>107</v>
+      </c>
+      <c r="V13" s="9">
+        <v>122</v>
+      </c>
+      <c r="W13" s="9">
+        <v>66</v>
+      </c>
+      <c r="X13" s="9">
+        <v>66</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>71</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>125</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>108</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>131</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>321</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>169</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>120</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>311</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>322</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>153</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>231</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>95</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>174</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>284</v>
+      </c>
+      <c r="AP13" s="9">
+        <v>285</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>330</v>
+      </c>
+      <c r="AR13" s="9">
+        <v>482</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>449</v>
+      </c>
+      <c r="AT13" s="9">
+        <v>244</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>99</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>16</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>22</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>50</v>
+      </c>
+      <c r="AY13" s="9">
+        <v>66</v>
+      </c>
+      <c r="AZ13" s="9">
+        <v>107</v>
+      </c>
+      <c r="BA13" s="9">
+        <v>58</v>
+      </c>
+      <c r="BB13" s="9">
+        <v>91</v>
+      </c>
+      <c r="BC13" s="9">
+        <v>194</v>
+      </c>
+      <c r="BD13" s="9">
+        <v>191</v>
+      </c>
+      <c r="BE13" s="9">
+        <v>161</v>
+      </c>
+      <c r="BF13" s="9">
+        <v>108</v>
+      </c>
+      <c r="BG13" s="9">
+        <v>73</v>
+      </c>
+      <c r="BH13" s="9">
+        <v>69</v>
+      </c>
+      <c r="BI13" s="9">
+        <v>193</v>
+      </c>
+      <c r="BJ13" s="9">
+        <v>244</v>
+      </c>
+      <c r="BK13" s="9">
+        <v>307</v>
+      </c>
+      <c r="BL13" s="9">
+        <v>255</v>
+      </c>
+      <c r="BM13" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5773</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5179</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5453</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5229</v>
+      </c>
+      <c r="H14" s="10">
+        <v>6524</v>
+      </c>
+      <c r="I14" s="10">
+        <v>8074</v>
+      </c>
+      <c r="J14" s="10">
+        <v>7556</v>
+      </c>
+      <c r="K14" s="10">
+        <v>6754</v>
+      </c>
+      <c r="L14" s="10">
+        <v>6843</v>
+      </c>
+      <c r="M14" s="10">
+        <v>6920</v>
+      </c>
+      <c r="N14" s="10">
+        <v>6116</v>
+      </c>
+      <c r="O14" s="10">
+        <v>6375</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5992</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>6248</v>
+      </c>
+      <c r="R14" s="10">
+        <v>7514</v>
+      </c>
+      <c r="S14" s="10">
+        <v>11557</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10619</v>
+      </c>
+      <c r="U14" s="10">
+        <v>9864</v>
+      </c>
+      <c r="V14" s="10">
+        <v>8470</v>
+      </c>
+      <c r="W14" s="10">
+        <v>5930</v>
+      </c>
+      <c r="X14" s="10">
+        <v>6334</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>6643</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>7354</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>7597</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>8621</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>7391</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>7961</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>6610</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>6338</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>6316</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>5920</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>5623</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>5846</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>6088</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>5941</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>6281</v>
+      </c>
+      <c r="AN14" s="10">
+        <v>7274</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>6560</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>5982</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>5708</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>5524</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>5774</v>
+      </c>
+      <c r="AT14" s="10">
+        <v>5759</v>
+      </c>
+      <c r="AU14" s="10">
+        <v>6129</v>
+      </c>
+      <c r="AV14" s="10">
+        <v>5162</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>4859</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>5426</v>
+      </c>
+      <c r="AY14" s="10">
+        <v>5767</v>
+      </c>
+      <c r="AZ14" s="10">
+        <v>6263</v>
+      </c>
+      <c r="BA14" s="10">
+        <v>6248</v>
+      </c>
+      <c r="BB14" s="10">
+        <v>6542</v>
+      </c>
+      <c r="BC14" s="10">
+        <v>6819</v>
+      </c>
+      <c r="BD14" s="10">
+        <v>6551</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>6356</v>
+      </c>
+      <c r="BF14" s="10">
+        <v>5469</v>
+      </c>
+      <c r="BG14" s="10">
+        <v>5234</v>
+      </c>
+      <c r="BH14" s="10">
+        <v>5512</v>
+      </c>
+      <c r="BI14" s="10">
+        <v>5861</v>
+      </c>
+      <c r="BJ14" s="10">
+        <v>6270</v>
+      </c>
+      <c r="BK14" s="10">
+        <v>6509</v>
+      </c>
+      <c r="BL14" s="10">
+        <v>6370</v>
+      </c>
+      <c r="BM14" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10">
+        <v>8615</v>
+      </c>
+      <c r="E15" s="10">
+        <v>8080</v>
+      </c>
+      <c r="F15" s="10">
+        <v>7857</v>
+      </c>
+      <c r="G15" s="10">
+        <v>7204</v>
+      </c>
+      <c r="H15" s="10">
+        <v>7632</v>
+      </c>
+      <c r="I15" s="10">
+        <v>7788</v>
+      </c>
+      <c r="J15" s="10">
+        <v>6863</v>
+      </c>
+      <c r="K15" s="10">
+        <v>6110</v>
+      </c>
+      <c r="L15" s="10">
+        <v>5616</v>
+      </c>
+      <c r="M15" s="10">
+        <v>5011</v>
+      </c>
+      <c r="N15" s="10">
+        <v>4203</v>
+      </c>
+      <c r="O15" s="10">
+        <v>3825</v>
+      </c>
+      <c r="P15" s="10">
+        <v>3201</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2404</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3175</v>
+      </c>
+      <c r="S15" s="10">
+        <v>5406</v>
+      </c>
+      <c r="T15" s="10">
+        <v>5527</v>
+      </c>
+      <c r="U15" s="10">
+        <v>5692</v>
+      </c>
+      <c r="V15" s="10">
+        <v>4302</v>
+      </c>
+      <c r="W15" s="10">
+        <v>2927</v>
+      </c>
+      <c r="X15" s="10">
+        <v>2679</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>2886</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>3106</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>3162</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>3367</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>3455</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>3478</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>2902</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>2556</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>2223</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>1838</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>1484</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>1420</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>1242</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>1315</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>1477</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>1815</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>1619</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>1501</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>1322</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>1172</v>
+      </c>
+      <c r="AS15" s="10">
+        <v>1047</v>
+      </c>
+      <c r="AT15" s="10">
+        <v>1082</v>
+      </c>
+      <c r="AU15" s="10">
+        <v>1039</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>879</v>
+      </c>
+      <c r="AW15" s="9">
+        <v>772</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>748</v>
+      </c>
+      <c r="AY15" s="9">
+        <v>795</v>
+      </c>
+      <c r="AZ15" s="9">
+        <v>993</v>
+      </c>
+      <c r="BA15" s="9">
+        <v>980</v>
+      </c>
+      <c r="BB15" s="9">
+        <v>917</v>
+      </c>
+      <c r="BC15" s="9">
+        <v>885</v>
+      </c>
+      <c r="BD15" s="9">
+        <v>801</v>
+      </c>
+      <c r="BE15" s="9">
+        <v>788</v>
+      </c>
+      <c r="BF15" s="9">
+        <v>591</v>
+      </c>
+      <c r="BG15" s="9">
+        <v>476</v>
+      </c>
+      <c r="BH15" s="9">
+        <v>513</v>
+      </c>
+      <c r="BI15" s="9">
+        <v>537</v>
+      </c>
+      <c r="BJ15" s="9">
+        <v>604</v>
+      </c>
+      <c r="BK15" s="9">
+        <v>609</v>
+      </c>
+      <c r="BL15" s="9">
+        <v>585</v>
+      </c>
+      <c r="BM15" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10">
+        <v>34644</v>
+      </c>
+      <c r="E16" s="10">
+        <v>34551</v>
+      </c>
+      <c r="F16" s="10">
+        <v>34768</v>
+      </c>
+      <c r="G16" s="10">
+        <v>35274</v>
+      </c>
+      <c r="H16" s="10">
+        <v>39310</v>
+      </c>
+      <c r="I16" s="10">
+        <v>40959</v>
+      </c>
+      <c r="J16" s="10">
+        <v>41036</v>
+      </c>
+      <c r="K16" s="10">
+        <v>40407</v>
+      </c>
+      <c r="L16" s="10">
+        <v>41034</v>
+      </c>
+      <c r="M16" s="10">
+        <v>40584</v>
+      </c>
+      <c r="N16" s="10">
+        <v>39559</v>
+      </c>
+      <c r="O16" s="10">
+        <v>39730</v>
+      </c>
+      <c r="P16" s="10">
+        <v>39335</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>36506</v>
+      </c>
+      <c r="R16" s="10">
+        <v>40528</v>
+      </c>
+      <c r="S16" s="10">
+        <v>46872</v>
+      </c>
+      <c r="T16" s="10">
+        <v>48726</v>
+      </c>
+      <c r="U16" s="10">
+        <v>48073</v>
+      </c>
+      <c r="V16" s="10">
+        <v>44272</v>
+      </c>
+      <c r="W16" s="10">
+        <v>36932</v>
+      </c>
+      <c r="X16" s="10">
+        <v>36795</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>38151</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>39264</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>40136</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>41259</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>40048</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>41046</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>38792</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>37880</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>36328</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>35277</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>34369</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>34489</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>34746</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>35692</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>37295</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>38575</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>38111</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>37138</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>37642</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>37588</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>36576</v>
+      </c>
+      <c r="AT16" s="10">
+        <v>36970</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>36686</v>
+      </c>
+      <c r="AV16" s="10">
+        <v>33759</v>
+      </c>
+      <c r="AW16" s="10">
+        <v>33311</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>34597</v>
+      </c>
+      <c r="AY16" s="10">
+        <v>35209</v>
+      </c>
+      <c r="AZ16" s="10">
+        <v>35508</v>
+      </c>
+      <c r="BA16" s="10">
+        <v>34468</v>
+      </c>
+      <c r="BB16" s="10">
+        <v>35324</v>
+      </c>
+      <c r="BC16" s="10">
+        <v>35108</v>
+      </c>
+      <c r="BD16" s="10">
+        <v>33873</v>
+      </c>
+      <c r="BE16" s="10">
+        <v>33353</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>30857</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>29320</v>
+      </c>
+      <c r="BH16" s="10">
+        <v>31189</v>
+      </c>
+      <c r="BI16" s="10">
+        <v>32818</v>
+      </c>
+      <c r="BJ16" s="10">
+        <v>33704</v>
+      </c>
+      <c r="BK16" s="10">
+        <v>34265</v>
+      </c>
+      <c r="BL16" s="10">
+        <v>33116</v>
+      </c>
+      <c r="BM16" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3939</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3979</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3785</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4040</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4232</v>
+      </c>
+      <c r="I17" s="10">
+        <v>4248</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4049</v>
+      </c>
+      <c r="K17" s="10">
+        <v>4045</v>
+      </c>
+      <c r="L17" s="10">
+        <v>4012</v>
+      </c>
+      <c r="M17" s="10">
+        <v>4123</v>
+      </c>
+      <c r="N17" s="10">
+        <v>4297</v>
+      </c>
+      <c r="O17" s="10">
+        <v>4442</v>
+      </c>
+      <c r="P17" s="10">
+        <v>5126</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>6487</v>
+      </c>
+      <c r="R17" s="10">
+        <v>6110</v>
+      </c>
+      <c r="S17" s="10">
+        <v>6992</v>
+      </c>
+      <c r="T17" s="10">
+        <v>5190</v>
+      </c>
+      <c r="U17" s="10">
+        <v>6000</v>
+      </c>
+      <c r="V17" s="10">
+        <v>6188</v>
+      </c>
+      <c r="W17" s="10">
+        <v>5952</v>
+      </c>
+      <c r="X17" s="10">
+        <v>5649</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>6014</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>6326</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>6255</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>5671</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>5917</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>4695</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>4925</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>5331</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>4703</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>4774</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>4679</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>4757</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>5171</v>
+      </c>
+      <c r="AL17" s="10">
+        <v>4454</v>
+      </c>
+      <c r="AM17" s="10">
+        <v>4897</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>4931</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>4524</v>
+      </c>
+      <c r="AP17" s="10">
+        <v>4052</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>3685</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>3649</v>
+      </c>
+      <c r="AS17" s="10">
+        <v>4287</v>
+      </c>
+      <c r="AT17" s="10">
+        <v>4136</v>
+      </c>
+      <c r="AU17" s="10">
+        <v>4257</v>
+      </c>
+      <c r="AV17" s="10">
+        <v>4241</v>
+      </c>
+      <c r="AW17" s="10">
+        <v>4265</v>
+      </c>
+      <c r="AX17" s="10">
+        <v>4427</v>
+      </c>
+      <c r="AY17" s="10">
+        <v>4517</v>
+      </c>
+      <c r="AZ17" s="10">
+        <v>4141</v>
+      </c>
+      <c r="BA17" s="10">
+        <v>4055</v>
+      </c>
+      <c r="BB17" s="10">
+        <v>3803</v>
+      </c>
+      <c r="BC17" s="10">
+        <v>3889</v>
+      </c>
+      <c r="BD17" s="10">
+        <v>3753</v>
+      </c>
+      <c r="BE17" s="10">
+        <v>4001</v>
+      </c>
+      <c r="BF17" s="10">
+        <v>3985</v>
+      </c>
+      <c r="BG17" s="10">
+        <v>3963</v>
+      </c>
+      <c r="BH17" s="10">
+        <v>3776</v>
+      </c>
+      <c r="BI17" s="10">
+        <v>3881</v>
+      </c>
+      <c r="BJ17" s="10">
+        <v>3757</v>
+      </c>
+      <c r="BK17" s="10">
+        <v>3923</v>
+      </c>
+      <c r="BL17" s="10">
+        <v>3752</v>
+      </c>
+      <c r="BM17" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10">
+        <v>97700</v>
+      </c>
+      <c r="E18" s="10">
+        <v>100369</v>
+      </c>
+      <c r="F18" s="10">
+        <v>104488</v>
+      </c>
+      <c r="G18" s="10">
+        <v>107903</v>
+      </c>
+      <c r="H18" s="10">
+        <v>109000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>108862</v>
+      </c>
+      <c r="J18" s="10">
+        <v>108783</v>
+      </c>
+      <c r="K18" s="10">
+        <v>109371</v>
+      </c>
+      <c r="L18" s="10">
+        <v>110015</v>
+      </c>
+      <c r="M18" s="10">
+        <v>112369</v>
+      </c>
+      <c r="N18" s="10">
+        <v>114578</v>
+      </c>
+      <c r="O18" s="10">
+        <v>117862</v>
+      </c>
+      <c r="P18" s="10">
+        <v>121539</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>127788</v>
+      </c>
+      <c r="R18" s="10">
+        <v>132028</v>
+      </c>
+      <c r="S18" s="10">
+        <v>127980</v>
+      </c>
+      <c r="T18" s="10">
+        <v>122810</v>
+      </c>
+      <c r="U18" s="10">
+        <v>116375</v>
+      </c>
+      <c r="V18" s="10">
+        <v>110864</v>
+      </c>
+      <c r="W18" s="10">
+        <v>111242</v>
+      </c>
+      <c r="X18" s="10">
+        <v>114351</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>115444</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>115001</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>113360</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>109582</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>105378</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>102118</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>99622</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>96740</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>95816</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>96393</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>97556</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>99176</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>100974</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>102785</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>103548</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>101656</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>99744</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>99115</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>98199</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>97298</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>96723</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>96100</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>94403</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>95018</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>96342</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>96573</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>96035</v>
+      </c>
+      <c r="AZ18" s="10">
+        <v>94721</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>94081</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>92887</v>
+      </c>
+      <c r="BC18" s="10">
+        <v>91160</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>90095</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>88243</v>
+      </c>
+      <c r="BF18" s="10">
+        <v>89173</v>
+      </c>
+      <c r="BG18" s="10">
+        <v>91888</v>
+      </c>
+      <c r="BH18" s="10">
+        <v>93625</v>
+      </c>
+      <c r="BI18" s="10">
+        <v>94298</v>
+      </c>
+      <c r="BJ18" s="10">
+        <v>94805</v>
+      </c>
+      <c r="BK18" s="10">
+        <v>94413</v>
+      </c>
+      <c r="BL18" s="10">
+        <v>95100</v>
+      </c>
+      <c r="BM18" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="10">
+        <v>136315</v>
+      </c>
+      <c r="E19" s="10">
+        <v>138923</v>
+      </c>
+      <c r="F19" s="10">
+        <v>143060</v>
+      </c>
+      <c r="G19" s="10">
+        <v>107926</v>
+      </c>
+      <c r="H19" s="10">
+        <v>109062</v>
+      </c>
+      <c r="I19" s="10">
+        <v>108916</v>
+      </c>
+      <c r="J19" s="10">
+        <v>153903</v>
+      </c>
+      <c r="K19" s="10">
+        <v>153878</v>
+      </c>
+      <c r="L19" s="10">
+        <v>155097</v>
+      </c>
+      <c r="M19" s="10">
+        <v>157115</v>
+      </c>
+      <c r="N19" s="10">
+        <v>158522</v>
+      </c>
+      <c r="O19" s="10">
+        <v>162127</v>
+      </c>
+      <c r="P19" s="10">
+        <v>166104</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>171054</v>
+      </c>
+      <c r="R19" s="10">
+        <v>178870</v>
+      </c>
+      <c r="S19" s="10">
+        <v>182040</v>
+      </c>
+      <c r="T19" s="10">
+        <v>176931</v>
+      </c>
+      <c r="U19" s="10">
+        <v>170555</v>
+      </c>
+      <c r="V19" s="10">
+        <v>161446</v>
+      </c>
+      <c r="W19" s="10">
+        <v>154192</v>
+      </c>
+      <c r="X19" s="10">
+        <v>156861</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>159697</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>160649</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>159807</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>156583</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>151468</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>147967</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>143470</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>140272</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>137016</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>136564</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>136915</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>138744</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>141044</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>143162</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>145835</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>145336</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>142663</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>140590</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>139856</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>139017</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>138035</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>137450</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>135445</v>
+      </c>
+      <c r="AV19" s="10">
+        <v>133034</v>
+      </c>
+      <c r="AW19" s="10">
+        <v>133940</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>135647</v>
+      </c>
+      <c r="AY19" s="10">
+        <v>135827</v>
+      </c>
+      <c r="AZ19" s="10">
+        <v>134477</v>
+      </c>
+      <c r="BA19" s="10">
+        <v>132662</v>
+      </c>
+      <c r="BB19" s="10">
+        <v>132105</v>
+      </c>
+      <c r="BC19" s="10">
+        <v>130351</v>
+      </c>
+      <c r="BD19" s="10">
+        <v>127912</v>
+      </c>
+      <c r="BE19" s="10">
+        <v>125758</v>
+      </c>
+      <c r="BF19" s="10">
+        <v>124123</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>125244</v>
+      </c>
+      <c r="BH19" s="10">
+        <v>128659</v>
+      </c>
+      <c r="BI19" s="10">
+        <v>131190</v>
+      </c>
+      <c r="BJ19" s="10">
+        <v>132510</v>
+      </c>
+      <c r="BK19" s="10">
+        <v>132908</v>
+      </c>
+      <c r="BL19" s="10">
+        <v>132223</v>
+      </c>
+      <c r="BM19" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27816,20 +27813,49 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106507DD-B6B9-2B43-871E-146437C76CEE}">
-  <dimension ref="A9:C72"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>462</v>
       </c>
@@ -27839,8 +27865,11 @@
       <c r="C9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -27850,8 +27879,11 @@
       <c r="C10" s="16">
         <v>9818900</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="16">
+        <v>16297800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -27861,8 +27893,11 @@
       <c r="C11" s="16">
         <v>9166800</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="16">
+        <v>16636700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -27872,8 +27907,11 @@
       <c r="C12" s="16">
         <v>8611100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="16">
+        <v>16770600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -27883,8 +27921,11 @@
       <c r="C13" s="16">
         <v>7698000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="16">
+        <v>16494500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -27894,8 +27935,11 @@
       <c r="C14" s="16">
         <v>7351300</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="16">
+        <v>15331400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -27905,8 +27949,11 @@
       <c r="C15" s="16">
         <v>8376600</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="16">
+        <v>15377500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -27916,8 +27963,11 @@
       <c r="C16" s="16">
         <v>9131500</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="16">
+        <v>16003400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -27927,8 +27977,11 @@
       <c r="C17" s="16">
         <v>9269000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="16">
+        <v>16159500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -27938,8 +27991,11 @@
       <c r="C18" s="16">
         <v>9725800</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="16">
+        <v>16538600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -27949,8 +28005,11 @@
       <c r="C19" s="16">
         <v>10046900</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="16">
+        <v>16596400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -27960,8 +28019,11 @@
       <c r="C20" s="16">
         <v>9743000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="16">
+        <v>16311700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -27971,8 +28033,11 @@
       <c r="C21" s="16">
         <v>10090900</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="16">
+        <v>16949100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -27982,8 +28047,11 @@
       <c r="C22" s="16">
         <v>10206800</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="16">
+        <v>17285200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -27993,8 +28061,11 @@
       <c r="C23" s="16">
         <v>9819500</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="16">
+        <v>17478300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -28004,8 +28075,11 @@
       <c r="C24" s="16">
         <v>9761300</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="16">
+        <v>16796800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2004</v>
       </c>
@@ -28015,8 +28089,11 @@
       <c r="C25" s="16">
         <v>10344600</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="16">
+        <v>16192100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -28026,8 +28103,11 @@
       <c r="C26" s="16">
         <v>11078200</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="16">
+        <v>17176900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -28037,8 +28117,11 @@
       <c r="C27" s="16">
         <v>11342000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="16">
+        <v>17522500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2001</v>
       </c>
@@ -28048,8 +28131,11 @@
       <c r="C28" s="16">
         <v>11378900</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="16">
+        <v>17097100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2000</v>
       </c>
@@ -28059,8 +28145,11 @@
       <c r="C29" s="16">
         <v>11834500</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="16">
+        <v>17757800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -28070,8 +28159,11 @@
       <c r="C30" s="16">
         <v>11648400</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="16">
+        <v>17608000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1998</v>
       </c>
@@ -28081,8 +28173,11 @@
       <c r="C31" s="16">
         <v>11227700</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="16">
+        <v>17101100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -28092,8 +28187,11 @@
       <c r="C32" s="16">
         <v>11287400</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="16">
+        <v>17172100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1996</v>
       </c>
@@ -28103,8 +28201,11 @@
       <c r="C33" s="16">
         <v>10501700</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="16">
+        <v>17400000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -28114,8 +28215,11 @@
       <c r="C34" s="16">
         <v>10174600</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="16">
+        <v>17887200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1994</v>
       </c>
@@ -28125,8 +28229,11 @@
       <c r="C35" s="16">
         <v>9389500</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="16">
+        <v>17651300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1993</v>
       </c>
@@ -28136,8 +28243,11 @@
       <c r="C36" s="16">
         <v>9151800</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="16">
+        <v>16839800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1992</v>
       </c>
@@ -28147,8 +28257,11 @@
       <c r="C37" s="16">
         <v>9020000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="16">
+        <v>16730000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1991</v>
       </c>
@@ -28158,8 +28271,11 @@
       <c r="C38" s="16">
         <v>9484000</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="16">
+        <v>16316000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1990</v>
       </c>
@@ -28169,8 +28285,11 @@
       <c r="C39" s="16">
         <v>9832000</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="16">
+        <v>16160000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1989</v>
       </c>
@@ -28180,8 +28299,11 @@
       <c r="C40" s="16">
         <v>10128000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="16">
+        <v>16094000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1988</v>
       </c>
@@ -28191,8 +28313,11 @@
       <c r="C41" s="16">
         <v>10439000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="16">
+        <v>16833000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1987</v>
       </c>
@@ -28202,8 +28327,11 @@
       <c r="C42" s="16">
         <v>10545000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="16">
+        <v>16867000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1986</v>
       </c>
@@ -28213,8 +28341,11 @@
       <c r="C43" s="16">
         <v>10688000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="16">
+        <v>16871000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1985</v>
       </c>
@@ -28224,8 +28355,11 @@
       <c r="C44" s="16">
         <v>10763000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="16">
+        <v>16201000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1984</v>
       </c>
@@ -28235,8 +28369,11 @@
       <c r="C45" s="16">
         <v>10211000</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="16">
+        <v>16688000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1983</v>
       </c>
@@ -28246,8 +28383,11 @@
       <c r="C46" s="16">
         <v>10221000</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="16">
+        <v>16613000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1982</v>
       </c>
@@ -28257,8 +28397,11 @@
       <c r="C47" s="16">
         <v>9833000</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="16">
+        <v>16344000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1981</v>
       </c>
@@ -28268,8 +28411,11 @@
       <c r="C48" s="16">
         <v>9416000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="16">
+        <v>16437000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1980</v>
       </c>
@@ -28279,8 +28425,11 @@
       <c r="C49" s="16">
         <v>8980000</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="16">
+        <v>16059000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1979</v>
       </c>
@@ -28290,8 +28439,11 @@
       <c r="C50" s="16">
         <v>9112000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="16">
+        <v>16258000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1978</v>
       </c>
@@ -28301,8 +28453,11 @@
       <c r="C51" s="16">
         <v>10981000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="16">
+        <v>17308000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1977</v>
       </c>
@@ -28312,8 +28467,11 @@
       <c r="C52" s="16">
         <v>10866000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="16">
+        <v>17892000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1976</v>
       </c>
@@ -28323,8 +28481,11 @@
       <c r="C53" s="16">
         <v>11117000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="16">
+        <v>17265000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1975</v>
       </c>
@@ -28334,8 +28495,11 @@
       <c r="C54" s="16">
         <v>9420000</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="16">
+        <v>16070000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1974</v>
       </c>
@@ -28345,8 +28509,11 @@
       <c r="C55" s="16">
         <v>7960000</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="16">
+        <v>17824000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1973</v>
       </c>
@@ -28356,8 +28523,11 @@
       <c r="C56" s="16">
         <v>7645000</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="16">
+        <v>16604000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1972</v>
       </c>
@@ -28367,8 +28537,11 @@
       <c r="C57" s="16">
         <v>8535000</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="16">
+        <v>17749000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1971</v>
       </c>
@@ -28378,8 +28551,11 @@
       <c r="C58" s="16">
         <v>8229000</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="16">
+        <v>17003000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1957</v>
       </c>
@@ -28389,8 +28565,11 @@
       <c r="C59" s="16">
         <v>2980000</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="16">
+        <v>10018000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1956</v>
       </c>
@@ -28400,8 +28579,11 @@
       <c r="C60" s="16">
         <v>2837000</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="16">
+        <v>10310000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1955</v>
       </c>
@@ -28411,8 +28593,11 @@
       <c r="C61" s="16">
         <v>2674000</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="16">
+        <v>9299000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1954</v>
       </c>
@@ -28422,8 +28607,11 @@
       <c r="C62" s="16">
         <v>2472000</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="16">
+        <v>9302000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1953</v>
       </c>
@@ -28433,8 +28621,11 @@
       <c r="C63" s="16">
         <v>2049000</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="16">
+        <v>9445000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1952</v>
       </c>
@@ -28444,8 +28635,11 @@
       <c r="C64" s="16">
         <v>1408000</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="16">
+        <v>7171000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1951</v>
       </c>
@@ -28455,8 +28649,11 @@
       <c r="C65" s="16">
         <v>1199000</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="16">
+        <v>6180000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1950</v>
       </c>
@@ -28466,8 +28663,11 @@
       <c r="C66" s="16">
         <v>1390000</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="16">
+        <v>6944000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1949</v>
       </c>
@@ -28477,8 +28677,11 @@
       <c r="C67" s="16">
         <v>1492000</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="16">
+        <v>7090000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1948</v>
       </c>
@@ -28488,8 +28691,11 @@
       <c r="C68" s="16">
         <v>1483000</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="16">
+        <v>5751000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1947</v>
       </c>
@@ -28499,8 +28705,11 @@
       <c r="C69" s="16">
         <v>1953000</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="16">
+        <v>6968000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1946</v>
       </c>
@@ -28510,8 +28719,11 @@
       <c r="C70" s="16">
         <v>1324000</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="16">
+        <v>5364000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1945</v>
       </c>
@@ -28521,8 +28733,11 @@
       <c r="C71" s="16">
         <v>1620000</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="16">
+        <v>6657000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1944</v>
       </c>
@@ -28532,706 +28747,14 @@
       <c r="C72" s="16">
         <v>1568000</v>
       </c>
+      <c r="D72" s="16">
+        <v>5860000</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7220329-E47A-0C4C-B43F-2038D1369FA9}">
-  <dimension ref="A5:B89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="16">
-        <v>16297800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="16">
-        <v>16636700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="16">
-        <v>16770600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="16">
-        <v>16494500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="16">
-        <v>15331400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="16">
-        <v>15377500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="16">
-        <v>16003400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="16">
-        <v>16159500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="16">
-        <v>16538600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B15" s="16">
-        <v>16596400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="16">
-        <v>16311700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>2008</v>
-      </c>
-      <c r="B17" s="16">
-        <v>16949100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="16">
-        <v>17285200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="16">
-        <v>17478300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="16">
-        <v>16796800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
-        <v>2004</v>
-      </c>
-      <c r="B21" s="16">
-        <v>16192100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>2003</v>
-      </c>
-      <c r="B22" s="16">
-        <v>17176900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
-        <v>2002</v>
-      </c>
-      <c r="B23" s="16">
-        <v>17522500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>2001</v>
-      </c>
-      <c r="B24" s="16">
-        <v>17097100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="16">
-        <v>17757800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
-        <v>1999</v>
-      </c>
-      <c r="B26" s="16">
-        <v>17608000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
-        <v>1998</v>
-      </c>
-      <c r="B27" s="16">
-        <v>17101100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <v>1997</v>
-      </c>
-      <c r="B28" s="16">
-        <v>17172100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <v>1996</v>
-      </c>
-      <c r="B29" s="16">
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
-        <v>1995</v>
-      </c>
-      <c r="B30" s="16">
-        <v>17887200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
-        <v>1994</v>
-      </c>
-      <c r="B31" s="16">
-        <v>17651300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
-        <v>1993</v>
-      </c>
-      <c r="B32" s="16">
-        <v>16839800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
-        <v>1992</v>
-      </c>
-      <c r="B33" s="16">
-        <v>16730000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
-        <v>1991</v>
-      </c>
-      <c r="B34" s="16">
-        <v>16316000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
-        <v>1990</v>
-      </c>
-      <c r="B35" s="16">
-        <v>16160000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
-        <v>1989</v>
-      </c>
-      <c r="B36" s="16">
-        <v>16094000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
-        <v>1988</v>
-      </c>
-      <c r="B37" s="16">
-        <v>16833000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
-        <v>1987</v>
-      </c>
-      <c r="B38" s="16">
-        <v>16867000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
-        <v>1986</v>
-      </c>
-      <c r="B39" s="16">
-        <v>16871000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
-        <v>1985</v>
-      </c>
-      <c r="B40" s="16">
-        <v>16201000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
-        <v>1984</v>
-      </c>
-      <c r="B41" s="16">
-        <v>16688000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
-        <v>1983</v>
-      </c>
-      <c r="B42" s="16">
-        <v>16613000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
-        <v>1982</v>
-      </c>
-      <c r="B43" s="16">
-        <v>16344000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
-        <v>1981</v>
-      </c>
-      <c r="B44" s="16">
-        <v>16437000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
-        <v>1980</v>
-      </c>
-      <c r="B45" s="16">
-        <v>16059000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <v>1979</v>
-      </c>
-      <c r="B46" s="16">
-        <v>16258000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
-        <v>1978</v>
-      </c>
-      <c r="B47" s="16">
-        <v>17308000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <v>1977</v>
-      </c>
-      <c r="B48" s="16">
-        <v>17892000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <v>1976</v>
-      </c>
-      <c r="B49" s="16">
-        <v>17265000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
-        <v>1975</v>
-      </c>
-      <c r="B50" s="16">
-        <v>16070000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
-        <v>1974</v>
-      </c>
-      <c r="B51" s="16">
-        <v>17824000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
-        <v>1973</v>
-      </c>
-      <c r="B52" s="16">
-        <v>16604000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <v>1972</v>
-      </c>
-      <c r="B53" s="16">
-        <v>17749000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
-        <v>1971</v>
-      </c>
-      <c r="B54" s="16">
-        <v>17003000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
-        <v>1957</v>
-      </c>
-      <c r="B55" s="16">
-        <v>10018000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
-        <v>1956</v>
-      </c>
-      <c r="B56" s="16">
-        <v>10310000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
-        <v>1955</v>
-      </c>
-      <c r="B57" s="16">
-        <v>9299000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
-        <v>1954</v>
-      </c>
-      <c r="B58" s="16">
-        <v>9302000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
-        <v>1953</v>
-      </c>
-      <c r="B59" s="16">
-        <v>9445000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
-        <v>1952</v>
-      </c>
-      <c r="B60" s="16">
-        <v>7171000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
-        <v>1951</v>
-      </c>
-      <c r="B61" s="16">
-        <v>6180000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
-        <v>1950</v>
-      </c>
-      <c r="B62" s="16">
-        <v>6944000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
-        <v>1949</v>
-      </c>
-      <c r="B63" s="16">
-        <v>7090000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
-        <v>1948</v>
-      </c>
-      <c r="B64" s="16">
-        <v>5751000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
-        <v>1947</v>
-      </c>
-      <c r="B65" s="16">
-        <v>6968000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="17">
-        <v>1946</v>
-      </c>
-      <c r="B66" s="16">
-        <v>5364000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
-        <v>1945</v>
-      </c>
-      <c r="B67" s="16">
-        <v>6657000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
-        <v>1944</v>
-      </c>
-      <c r="B68" s="16">
-        <v>5860000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="17">
-        <v>1943</v>
-      </c>
-      <c r="B69" s="16">
-        <v>5737000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="17">
-        <v>1942</v>
-      </c>
-      <c r="B70" s="16">
-        <v>6019000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="17">
-        <v>1941</v>
-      </c>
-      <c r="B71" s="16">
-        <v>5459000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="17">
-        <v>1940</v>
-      </c>
-      <c r="B72" s="16">
-        <v>4866000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="17">
-        <v>1939</v>
-      </c>
-      <c r="B73" s="16">
-        <v>4588000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
-        <v>1938</v>
-      </c>
-      <c r="B74" s="16">
-        <v>4517000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
-        <v>1937</v>
-      </c>
-      <c r="B75" s="16">
-        <v>4037000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="17">
-        <v>1936</v>
-      </c>
-      <c r="B76" s="16">
-        <v>4798000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="17">
-        <v>1935</v>
-      </c>
-      <c r="B77" s="16">
-        <v>3856000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="17">
-        <v>1934</v>
-      </c>
-      <c r="B78" s="16">
-        <v>4763000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="17">
-        <v>1933</v>
-      </c>
-      <c r="B79" s="16">
-        <v>4506000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="17">
-        <v>1932</v>
-      </c>
-      <c r="B80" s="16">
-        <v>4141000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
-        <v>1931</v>
-      </c>
-      <c r="B81" s="16">
-        <v>4444000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="17">
-        <v>1930</v>
-      </c>
-      <c r="B82" s="16">
-        <v>4239000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="17">
-        <v>1929</v>
-      </c>
-      <c r="B83" s="16">
-        <v>4049000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="17">
-        <v>1928</v>
-      </c>
-      <c r="B84" s="16">
-        <v>3846000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="17">
-        <v>1927</v>
-      </c>
-      <c r="B85" s="16">
-        <v>4482000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="17">
-        <v>1926</v>
-      </c>
-      <c r="B86" s="16">
-        <v>4769000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="17">
-        <v>1925</v>
-      </c>
-      <c r="B87" s="16">
-        <v>4466000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="17">
-        <v>1924</v>
-      </c>
-      <c r="B88" s="16">
-        <v>4456000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="17">
-        <v>1923</v>
-      </c>
-      <c r="B89" s="16">
-        <v>4397000</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="release-items" xr:uid="{DC540E38-E57B-194C-97F9-A58C150128A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>